--- a/Base.xlsx
+++ b/Base.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/leonardoperezvictorino/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/leonardoperezvictorino/Ventajas-y-desventajas-de-los-indicadores-de-especializaci-n-y-diversificaci-n-econ-mica/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CE106141-7C90-9F4B-B902-D4DBF04B8675}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4552C60A-3DC8-FB4E-840E-44DC74FA8BB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="40960" windowHeight="23040" xr2:uid="{83822168-7FED-4097-8200-9005DB531B0B}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="40960" windowHeight="22540" xr2:uid="{83822168-7FED-4097-8200-9005DB531B0B}"/>
   </bookViews>
   <sheets>
     <sheet name="Base Larga" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1537" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1537" uniqueCount="112">
   <si>
     <t>año</t>
   </si>
@@ -370,6 +370,9 @@
   </si>
   <si>
     <t>Ciudad de México</t>
+  </si>
+  <si>
+    <t>nom_ent</t>
   </si>
 </sst>
 </file>
@@ -767,7 +770,7 @@
   <dimension ref="A1:K605"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -777,7 +780,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>111</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
@@ -22067,20 +22070,20 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="9f5d73ec-4d7c-4550-914d-2182a1cee87e" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="9f5d73ec-4d7c-4550-914d-2182a1cee87e" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -22279,6 +22282,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{94E6B42D-6DCE-4CC7-A69D-F948B8BB84B6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{212CA8F6-9572-4DBA-8747-1C940ADE1E59}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
@@ -22291,14 +22302,6 @@
     <ds:schemaRef ds:uri="9f5d73ec-4d7c-4550-914d-2182a1cee87e"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{94E6B42D-6DCE-4CC7-A69D-F948B8BB84B6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Base.xlsx
+++ b/Base.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/leonardoperezvictorino/Ventajas-y-desventajas-de-los-indicadores-de-especializaci-n-y-diversificaci-n-econ-mica/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rpm4a\Documents\Ventajas-y-desventajas-de-los-indicadores-de-especializaci-n-y-diversificaci-n-econ-mica\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4552C60A-3DC8-FB4E-840E-44DC74FA8BB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1ECF215-5C2B-4801-9740-720920184740}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="40960" windowHeight="22540" xr2:uid="{83822168-7FED-4097-8200-9005DB531B0B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{83822168-7FED-4097-8200-9005DB531B0B}"/>
   </bookViews>
   <sheets>
     <sheet name="Base Larga" sheetId="1" r:id="rId1"/>
-    <sheet name="Diccionario" sheetId="2" r:id="rId2"/>
+    <sheet name="31-33" sheetId="4" r:id="rId2"/>
+    <sheet name="Diccionario" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1537" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1644" uniqueCount="112">
   <si>
     <t>año</t>
   </si>
@@ -769,13 +770,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B83D4746-BD6E-446F-BCD9-60C65C0F912F}">
   <dimension ref="A1:K605"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView topLeftCell="A569" workbookViewId="0">
+      <selection sqref="A1:K605"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -810,7 +811,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>2003</v>
       </c>
@@ -845,7 +846,7 @@
         <v>2.7669999999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2003</v>
       </c>
@@ -880,7 +881,7 @@
         <v>1202.201</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>2003</v>
       </c>
@@ -915,7 +916,7 @@
         <v>244.376</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>2003</v>
       </c>
@@ -950,7 +951,7 @@
         <v>502.55599999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>2003</v>
       </c>
@@ -985,7 +986,7 @@
         <v>0.47299999999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>2003</v>
       </c>
@@ -1020,7 +1021,7 @@
         <v>128.04300000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>2003</v>
       </c>
@@ -1055,7 +1056,7 @@
         <v>164.08199999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>2003</v>
       </c>
@@ -1090,7 +1091,7 @@
         <v>10.237</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>2003</v>
       </c>
@@ -1125,7 +1126,7 @@
         <v>6.391</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>2003</v>
       </c>
@@ -1160,7 +1161,7 @@
         <v>6.9109999999999996</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>2003</v>
       </c>
@@ -1195,7 +1196,7 @@
         <v>149.767</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>2003</v>
       </c>
@@ -1230,7 +1231,7 @@
         <v>45.201999999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>2003</v>
       </c>
@@ -1265,7 +1266,7 @@
         <v>59.116999999999997</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>2003</v>
       </c>
@@ -1300,7 +1301,7 @@
         <v>61.067</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>2003</v>
       </c>
@@ -1335,7 +1336,7 @@
         <v>119.021</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>2003</v>
       </c>
@@ -1370,7 +1371,7 @@
         <v>55.719000000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>2003</v>
       </c>
@@ -1405,7 +1406,7 @@
         <v>243.154</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>2003</v>
       </c>
@@ -1440,7 +1441,7 @@
         <v>2.7610000000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>2003</v>
       </c>
@@ -1475,7 +1476,7 @@
         <v>170.006</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>2003</v>
       </c>
@@ -1510,7 +1511,7 @@
         <v>15.529</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>2003</v>
       </c>
@@ -1545,7 +1546,7 @@
         <v>3.2549999999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>2003</v>
       </c>
@@ -1580,7 +1581,7 @@
         <v>97.349000000000004</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>2003</v>
       </c>
@@ -1615,7 +1616,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>2003</v>
       </c>
@@ -1650,7 +1651,7 @@
         <v>2908.107</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>2003</v>
       </c>
@@ -1685,7 +1686,7 @@
         <v>1812.7650000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>2003</v>
       </c>
@@ -1720,7 +1721,7 @@
         <v>365.98399999999998</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>2003</v>
       </c>
@@ -1755,7 +1756,7 @@
         <v>595.11</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>2003</v>
       </c>
@@ -1790,7 +1791,7 @@
         <v>2.2559999999999998</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>2003</v>
       </c>
@@ -1825,7 +1826,7 @@
         <v>388.26499999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>2003</v>
       </c>
@@ -1860,7 +1861,7 @@
         <v>499.4</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>2003</v>
       </c>
@@ -1895,7 +1896,7 @@
         <v>6.0730000000000004</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>2003</v>
       </c>
@@ -1930,7 +1931,7 @@
         <v>103.771</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>2003</v>
       </c>
@@ -1965,7 +1966,7 @@
         <v>180.36699999999999</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>2003</v>
       </c>
@@ -2000,7 +2001,7 @@
         <v>601.44399999999996</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>2003</v>
       </c>
@@ -2035,7 +2036,7 @@
         <v>71656.968999999997</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>2003</v>
       </c>
@@ -2070,7 +2071,7 @@
         <v>8326.8619999999992</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>2003</v>
       </c>
@@ -2105,7 +2106,7 @@
         <v>3247.3159999999998</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>2003</v>
       </c>
@@ -2140,7 +2141,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>2003</v>
       </c>
@@ -2175,7 +2176,7 @@
         <v>2263.2440000000001</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>2003</v>
       </c>
@@ -2210,7 +2211,7 @@
         <v>599.69500000000005</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>2003</v>
       </c>
@@ -2245,7 +2246,7 @@
         <v>2979.2049999999999</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>2003</v>
       </c>
@@ -2280,7 +2281,7 @@
         <v>622.51099999999997</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>2003</v>
       </c>
@@ -2315,7 +2316,7 @@
         <v>203.185</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>2003</v>
       </c>
@@ -2350,7 +2351,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>2003</v>
       </c>
@@ -2385,7 +2386,7 @@
         <v>1219.6769999999999</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>2003</v>
       </c>
@@ -2420,7 +2421,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>2003</v>
       </c>
@@ -2455,7 +2456,7 @@
         <v>550.79499999999996</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>2003</v>
       </c>
@@ -2490,7 +2491,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>2003</v>
       </c>
@@ -2525,7 +2526,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>2003</v>
       </c>
@@ -2560,7 +2561,7 @@
         <v>1541.492</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>2003</v>
       </c>
@@ -2595,7 +2596,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>2003</v>
       </c>
@@ -2630,7 +2631,7 @@
         <v>505.65699999999998</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>2003</v>
       </c>
@@ -2665,7 +2666,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>2003</v>
       </c>
@@ -2700,7 +2701,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>2003</v>
       </c>
@@ -2735,7 +2736,7 @@
         <v>719.69899999999996</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>2003</v>
       </c>
@@ -2770,7 +2771,7 @@
         <v>148.93799999999999</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>2003</v>
       </c>
@@ -2805,7 +2806,7 @@
         <v>13049.752</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>2003</v>
       </c>
@@ -2840,7 +2841,7 @@
         <v>33299.22</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>2003</v>
       </c>
@@ -2875,7 +2876,7 @@
         <v>19931.598999999998</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>2003</v>
       </c>
@@ -2910,7 +2911,7 @@
         <v>11.603</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>2003</v>
       </c>
@@ -2945,7 +2946,7 @@
         <v>19499.906999999999</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>2003</v>
       </c>
@@ -2980,7 +2981,7 @@
         <v>178.29599999999999</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>2003</v>
       </c>
@@ -3015,7 +3016,7 @@
         <v>3983.1610000000001</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>2003</v>
       </c>
@@ -3050,7 +3051,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>2003</v>
       </c>
@@ -3085,7 +3086,7 @@
         <v>43112.012999999999</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>2003</v>
       </c>
@@ -3120,7 +3121,7 @@
         <v>6880.7749999999996</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>2003</v>
       </c>
@@ -3155,7 +3156,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>2003</v>
       </c>
@@ -3190,7 +3191,7 @@
         <v>33377.417000000001</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>2003</v>
       </c>
@@ -3225,7 +3226,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <v>2003</v>
       </c>
@@ -3260,7 +3261,7 @@
         <v>33085.053999999996</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <v>2003</v>
       </c>
@@ -3295,7 +3296,7 @@
         <v>33398.15</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <v>2003</v>
       </c>
@@ -3330,7 +3331,7 @@
         <v>56409.171999999999</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <v>2003</v>
       </c>
@@ -3365,7 +3366,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <v>2003</v>
       </c>
@@ -3400,7 +3401,7 @@
         <v>13163.388000000001</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
         <v>2003</v>
       </c>
@@ -3435,7 +3436,7 @@
         <v>58922.622000000003</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
         <v>2003</v>
       </c>
@@ -3470,7 +3471,7 @@
         <v>8737.5810000000001</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
         <v>2003</v>
       </c>
@@ -3505,7 +3506,7 @@
         <v>28180.553</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
         <v>2003</v>
       </c>
@@ -3540,7 +3541,7 @@
         <v>23207.727999999999</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
         <v>2003</v>
       </c>
@@ -3575,7 +3576,7 @@
         <v>18568.628000000001</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
         <v>2003</v>
       </c>
@@ -3610,7 +3611,7 @@
         <v>3668.9009999999998</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
         <v>2003</v>
       </c>
@@ -3645,7 +3646,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
         <v>2003</v>
       </c>
@@ -3680,7 +3681,7 @@
         <v>51467.847999999998</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
         <v>2003</v>
       </c>
@@ -3715,7 +3716,7 @@
         <v>13281.888000000001</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
         <v>2003</v>
       </c>
@@ -3750,7 +3751,7 @@
         <v>16621.027999999998</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
         <v>2003</v>
       </c>
@@ -3785,7 +3786,7 @@
         <v>19598.345000000001</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
         <v>2003</v>
       </c>
@@ -3820,7 +3821,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
         <v>2003</v>
       </c>
@@ -3855,7 +3856,7 @@
         <v>9395.6180000000004</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
         <v>2003</v>
       </c>
@@ -3890,7 +3891,7 @@
         <v>24362.758999999998</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
         <v>2003</v>
       </c>
@@ -3925,7 +3926,7 @@
         <v>19848.672999999999</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
         <v>2003</v>
       </c>
@@ -3960,7 +3961,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
         <v>2003</v>
       </c>
@@ -3995,7 +3996,7 @@
         <v>33119.400999999998</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
         <v>2003</v>
       </c>
@@ -4030,7 +4031,7 @@
         <v>1528.135</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
         <v>2003</v>
       </c>
@@ -4065,7 +4066,7 @@
         <v>95651.88</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
         <v>2003</v>
       </c>
@@ -4100,7 +4101,7 @@
         <v>12066.319</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
         <v>2003</v>
       </c>
@@ -4135,7 +4136,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
         <v>2003</v>
       </c>
@@ -4170,7 +4171,7 @@
         <v>814.10599999999999</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
         <v>2003</v>
       </c>
@@ -4205,7 +4206,7 @@
         <v>1308.5920000000001</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="2">
         <v>2003</v>
       </c>
@@ -4240,7 +4241,7 @@
         <v>333.66399999999999</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="2">
         <v>2003</v>
       </c>
@@ -4275,7 +4276,7 @@
         <v>943.41099999999994</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="2">
         <v>2003</v>
       </c>
@@ -4310,7 +4311,7 @@
         <v>1551.962</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="2">
         <v>2003</v>
       </c>
@@ -4345,7 +4346,7 @@
         <v>167.66399999999999</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
         <v>2003</v>
       </c>
@@ -4380,7 +4381,7 @@
         <v>872.57899999999995</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="2">
         <v>2003</v>
       </c>
@@ -4415,7 +4416,7 @@
         <v>2468.21</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="2">
         <v>2003</v>
       </c>
@@ -4450,7 +4451,7 @@
         <v>4445.3469999999998</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="2">
         <v>2003</v>
       </c>
@@ -4485,7 +4486,7 @@
         <v>724.99099999999999</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="2">
         <v>2003</v>
       </c>
@@ -4520,7 +4521,7 @@
         <v>1724.597</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="2">
         <v>2003</v>
       </c>
@@ -4555,7 +4556,7 @@
         <v>244.68799999999999</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="2">
         <v>2003</v>
       </c>
@@ -4590,7 +4591,7 @@
         <v>423.108</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
         <v>2003</v>
       </c>
@@ -4625,7 +4626,7 @@
         <v>2284.5859999999998</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="2">
         <v>2003</v>
       </c>
@@ -4660,7 +4661,7 @@
         <v>1362.877</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="2">
         <v>2003</v>
       </c>
@@ -4695,7 +4696,7 @@
         <v>888.096</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="2">
         <v>2003</v>
       </c>
@@ -4730,7 +4731,7 @@
         <v>238.244</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="2">
         <v>2003</v>
       </c>
@@ -4765,7 +4766,7 @@
         <v>447.58800000000002</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="2">
         <v>2003</v>
       </c>
@@ -4800,7 +4801,7 @@
         <v>2993.721</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="2">
         <v>2003</v>
       </c>
@@ -4835,7 +4836,7 @@
         <v>312.71100000000001</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="2">
         <v>2003</v>
       </c>
@@ -4870,7 +4871,7 @@
         <v>1170.288</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="2">
         <v>2003</v>
       </c>
@@ -4905,7 +4906,7 @@
         <v>678.92399999999998</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="2">
         <v>2003</v>
       </c>
@@ -4940,7 +4941,7 @@
         <v>367.91899999999998</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="2">
         <v>2003</v>
       </c>
@@ -4975,7 +4976,7 @@
         <v>739.27499999999998</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="2">
         <v>2003</v>
       </c>
@@ -5010,7 +5011,7 @@
         <v>908.65099999999995</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="2">
         <v>2003</v>
       </c>
@@ -5045,7 +5046,7 @@
         <v>1606.4680000000001</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="2">
         <v>2003</v>
       </c>
@@ -5080,7 +5081,7 @@
         <v>1141.3789999999999</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="2">
         <v>2003</v>
       </c>
@@ -5115,7 +5116,7 @@
         <v>1481.704</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="2">
         <v>2003</v>
       </c>
@@ -5150,7 +5151,7 @@
         <v>125.343</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="2">
         <v>2003</v>
       </c>
@@ -5185,7 +5186,7 @@
         <v>1359.3620000000001</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="2">
         <v>2003</v>
       </c>
@@ -5220,7 +5221,7 @@
         <v>750.59400000000005</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="2">
         <v>2003</v>
       </c>
@@ -5255,7 +5256,7 @@
         <v>463.96899999999999</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="2">
         <v>2003</v>
       </c>
@@ -5290,7 +5291,7 @@
         <v>30112.505000000001</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="2">
         <v>2003</v>
       </c>
@@ -5325,7 +5326,7 @@
         <v>23864.637999999999</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="2">
         <v>2003</v>
       </c>
@@ -5360,7 +5361,7 @@
         <v>1009.489</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="2">
         <v>2003</v>
       </c>
@@ -5395,7 +5396,7 @@
         <v>686.35</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="2">
         <v>2003</v>
       </c>
@@ -5430,7 +5431,7 @@
         <v>86066.498000000007</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="2">
         <v>2003</v>
       </c>
@@ -5465,7 +5466,7 @@
         <v>4428.0540000000001</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="2">
         <v>2003</v>
       </c>
@@ -5500,7 +5501,7 @@
         <v>9475.7119999999995</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="2">
         <v>2003</v>
       </c>
@@ -5535,7 +5536,7 @@
         <v>37734.574999999997</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="2">
         <v>2003</v>
       </c>
@@ -5570,7 +5571,7 @@
         <v>87535.354999999996</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="2">
         <v>2003</v>
       </c>
@@ -5605,7 +5606,7 @@
         <v>13803.485000000001</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="2">
         <v>2003</v>
       </c>
@@ -5640,7 +5641,7 @@
         <v>66415.792000000001</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="2">
         <v>2003</v>
       </c>
@@ -5675,7 +5676,7 @@
         <v>4558.2049999999999</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="2">
         <v>2003</v>
       </c>
@@ -5710,7 +5711,7 @@
         <v>53867.62</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="2">
         <v>2003</v>
       </c>
@@ -5745,7 +5746,7 @@
         <v>78806.263999999996</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="2">
         <v>2003</v>
       </c>
@@ -5780,7 +5781,7 @@
         <v>136061.99900000001</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="2">
         <v>2003</v>
       </c>
@@ -5815,7 +5816,7 @@
         <v>21315.016</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="2">
         <v>2003</v>
       </c>
@@ -5850,7 +5851,7 @@
         <v>11532.731</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="2">
         <v>2003</v>
       </c>
@@ -5885,7 +5886,7 @@
         <v>2152.759</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="2">
         <v>2003</v>
       </c>
@@ -5920,7 +5921,7 @@
         <v>148785.79800000001</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="2">
         <v>2003</v>
       </c>
@@ -5955,7 +5956,7 @@
         <v>28000.753000000001</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="2">
         <v>2003</v>
       </c>
@@ -5990,7 +5991,7 @@
         <v>96509.36</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="2">
         <v>2003</v>
       </c>
@@ -6025,7 +6026,7 @@
         <v>34257.108</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="2">
         <v>2003</v>
       </c>
@@ -6060,7 +6061,7 @@
         <v>802.55</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="2">
         <v>2003</v>
       </c>
@@ -6095,7 +6096,7 @@
         <v>41854.334999999999</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="2">
         <v>2003</v>
       </c>
@@ -6130,7 +6131,7 @@
         <v>10830.053</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="2">
         <v>2003</v>
       </c>
@@ -6165,7 +6166,7 @@
         <v>36190.478000000003</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="2">
         <v>2003</v>
       </c>
@@ -6200,7 +6201,7 @@
         <v>14803.189</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="2">
         <v>2003</v>
       </c>
@@ -6235,7 +6236,7 @@
         <v>37750.322</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="2">
         <v>2003</v>
       </c>
@@ -6270,7 +6271,7 @@
         <v>11674.82</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="2">
         <v>2003</v>
       </c>
@@ -6305,7 +6306,7 @@
         <v>109840.78599999999</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="2">
         <v>2003</v>
       </c>
@@ -6340,7 +6341,7 @@
         <v>8207.4789999999994</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="2">
         <v>2003</v>
       </c>
@@ -6375,7 +6376,7 @@
         <v>9501.3770000000004</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="2">
         <v>2003</v>
       </c>
@@ -6410,7 +6411,7 @@
         <v>1042.009</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="2">
         <v>2003</v>
       </c>
@@ -6445,7 +6446,7 @@
         <v>2348.5120000000002</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="2">
         <v>2003</v>
       </c>
@@ -6480,7 +6481,7 @@
         <v>643.36</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="2">
         <v>2003</v>
       </c>
@@ -6515,7 +6516,7 @@
         <v>509.38499999999999</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="2">
         <v>2003</v>
       </c>
@@ -6550,7 +6551,7 @@
         <v>2352.2629999999999</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="2">
         <v>2003</v>
       </c>
@@ -6585,7 +6586,7 @@
         <v>460.721</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="2">
         <v>2003</v>
       </c>
@@ -6620,7 +6621,7 @@
         <v>1610.8340000000001</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="2">
         <v>2003</v>
       </c>
@@ -6655,7 +6656,7 @@
         <v>2827.998</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="2">
         <v>2003</v>
       </c>
@@ -6690,7 +6691,7 @@
         <v>18500.864000000001</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="2">
         <v>2003</v>
       </c>
@@ -6725,7 +6726,7 @@
         <v>1371.126</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="2">
         <v>2003</v>
       </c>
@@ -6760,7 +6761,7 @@
         <v>4437.0649999999996</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="2">
         <v>2003</v>
       </c>
@@ -6795,7 +6796,7 @@
         <v>1395.1669999999999</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="2">
         <v>2003</v>
       </c>
@@ -6830,7 +6831,7 @@
         <v>936.91099999999994</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="2">
         <v>2003</v>
       </c>
@@ -6865,7 +6866,7 @@
         <v>7996.4369999999999</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="2">
         <v>2003</v>
       </c>
@@ -6900,7 +6901,7 @@
         <v>11776.592000000001</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="2">
         <v>2003</v>
       </c>
@@ -6935,7 +6936,7 @@
         <v>3366.31</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="2">
         <v>2003</v>
       </c>
@@ -6970,7 +6971,7 @@
         <v>1021.056</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="2">
         <v>2003</v>
       </c>
@@ -7005,7 +7006,7 @@
         <v>539.70500000000004</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="2">
         <v>2003</v>
       </c>
@@ -7040,7 +7041,7 @@
         <v>7990.7479999999996</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="2">
         <v>2003</v>
       </c>
@@ -7075,7 +7076,7 @@
         <v>1301.5609999999999</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="2">
         <v>2003</v>
       </c>
@@ -7110,7 +7111,7 @@
         <v>3400.0169999999998</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="2">
         <v>2003</v>
       </c>
@@ -7145,7 +7146,7 @@
         <v>2805.2869999999998</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="2">
         <v>2003</v>
       </c>
@@ -7180,7 +7181,7 @@
         <v>1007.044</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="2">
         <v>2003</v>
       </c>
@@ -7215,7 +7216,7 @@
         <v>1502.2249999999999</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="2">
         <v>2003</v>
       </c>
@@ -7250,7 +7251,7 @@
         <v>2344.2460000000001</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="2">
         <v>2003</v>
       </c>
@@ -7285,7 +7286,7 @@
         <v>2524.0450000000001</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="2">
         <v>2003</v>
       </c>
@@ -7320,7 +7321,7 @@
         <v>1278.144</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="2">
         <v>2003</v>
       </c>
@@ -7355,7 +7356,7 @@
         <v>7007.2250000000004</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="2">
         <v>2003</v>
       </c>
@@ -7390,7 +7391,7 @@
         <v>299.11799999999999</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="2">
         <v>2003</v>
       </c>
@@ -7425,7 +7426,7 @@
         <v>3639.393</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="2">
         <v>2003</v>
       </c>
@@ -7460,7 +7461,7 @@
         <v>1655.0139999999999</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="2">
         <v>2003</v>
       </c>
@@ -7495,7 +7496,7 @@
         <v>936.38400000000001</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="2">
         <v>2003</v>
       </c>
@@ -7530,7 +7531,7 @@
         <v>2631.9059999999999</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="2">
         <v>2003</v>
       </c>
@@ -7565,7 +7566,7 @@
         <v>6510.7259999999997</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="2">
         <v>2003</v>
       </c>
@@ -7600,7 +7601,7 @@
         <v>1697.3969999999999</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="2">
         <v>2003</v>
       </c>
@@ -7635,7 +7636,7 @@
         <v>1224.617</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="2">
         <v>2003</v>
       </c>
@@ -7670,7 +7671,7 @@
         <v>6578.6350000000002</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="2">
         <v>2003</v>
       </c>
@@ -7705,7 +7706,7 @@
         <v>1477.769</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="2">
         <v>2003</v>
       </c>
@@ -7740,7 +7741,7 @@
         <v>4183.7169999999996</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="2">
         <v>2003</v>
       </c>
@@ -7775,7 +7776,7 @@
         <v>8400.8459999999995</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="2">
         <v>2003</v>
       </c>
@@ -7810,7 +7811,7 @@
         <v>35702.546000000002</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="2">
         <v>2003</v>
       </c>
@@ -7845,7 +7846,7 @@
         <v>2707.3440000000001</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="2">
         <v>2003</v>
       </c>
@@ -7880,7 +7881,7 @@
         <v>11086.421</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="2">
         <v>2003</v>
       </c>
@@ -7915,7 +7916,7 @@
         <v>4428.5309999999999</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="2">
         <v>2003</v>
       </c>
@@ -7950,7 +7951,7 @@
         <v>3046.4250000000002</v>
       </c>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="2">
         <v>2003</v>
       </c>
@@ -7985,7 +7986,7 @@
         <v>17566.949000000001</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="2">
         <v>2003</v>
       </c>
@@ -8020,7 +8021,7 @@
         <v>23900.965</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="2">
         <v>2003</v>
       </c>
@@ -8055,7 +8056,7 @@
         <v>8265.5789999999997</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="2">
         <v>2003</v>
       </c>
@@ -8090,7 +8091,7 @@
         <v>3886.0210000000002</v>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="2">
         <v>2003</v>
       </c>
@@ -8125,7 +8126,7 @@
         <v>1721.1079999999999</v>
       </c>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="2">
         <v>2003</v>
       </c>
@@ -8160,7 +8161,7 @@
         <v>14994.888000000001</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="2">
         <v>2003</v>
       </c>
@@ -8195,7 +8196,7 @@
         <v>3964.7489999999998</v>
       </c>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="2">
         <v>2003</v>
       </c>
@@ -8230,7 +8231,7 @@
         <v>8197.1970000000001</v>
       </c>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="2">
         <v>2003</v>
       </c>
@@ -8265,7 +8266,7 @@
         <v>4659.2219999999998</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="2">
         <v>2003</v>
       </c>
@@ -8300,7 +8301,7 @@
         <v>3392.2249999999999</v>
       </c>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="2">
         <v>2003</v>
       </c>
@@ -8335,7 +8336,7 @@
         <v>4511.9319999999998</v>
       </c>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="2">
         <v>2003</v>
       </c>
@@ -8370,7 +8371,7 @@
         <v>5544.3090000000002</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="2">
         <v>2003</v>
       </c>
@@ -8405,7 +8406,7 @@
         <v>5815.018</v>
       </c>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="2">
         <v>2003</v>
       </c>
@@ -8440,7 +8441,7 @@
         <v>3063.8440000000001</v>
       </c>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="2">
         <v>2003</v>
       </c>
@@ -8475,7 +8476,7 @@
         <v>8051.8450000000003</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="2">
         <v>2003</v>
       </c>
@@ -8510,7 +8511,7 @@
         <v>1283.0840000000001</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="2">
         <v>2003</v>
       </c>
@@ -8545,7 +8546,7 @@
         <v>10187.427</v>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="2">
         <v>2003</v>
       </c>
@@ -8580,7 +8581,7 @@
         <v>3862.913</v>
       </c>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="2">
         <v>2003</v>
       </c>
@@ -8615,7 +8616,7 @@
         <v>2807.4229999999998</v>
       </c>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="2">
         <v>2003</v>
       </c>
@@ -8650,7 +8651,7 @@
         <v>2119.8919999999998</v>
       </c>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="2">
         <v>2003</v>
       </c>
@@ -8685,7 +8686,7 @@
         <v>3440.665</v>
       </c>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="2">
         <v>2003</v>
       </c>
@@ -8720,7 +8721,7 @@
         <v>1197.1579999999999</v>
       </c>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="2">
         <v>2003</v>
       </c>
@@ -8755,7 +8756,7 @@
         <v>1576.3330000000001</v>
       </c>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="2">
         <v>2003</v>
       </c>
@@ -8790,7 +8791,7 @@
         <v>4198.0879999999997</v>
       </c>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="2">
         <v>2003</v>
       </c>
@@ -8825,7 +8826,7 @@
         <v>2035.33</v>
       </c>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="2">
         <v>2003</v>
       </c>
@@ -8860,7 +8861,7 @@
         <v>1480.096</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="2">
         <v>2003</v>
       </c>
@@ -8895,7 +8896,7 @@
         <v>5112.3130000000001</v>
       </c>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="2">
         <v>2003</v>
       </c>
@@ -8930,7 +8931,7 @@
         <v>118384.4</v>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="2">
         <v>2003</v>
       </c>
@@ -8965,7 +8966,7 @@
         <v>2291.8049999999998</v>
       </c>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="2">
         <v>2003</v>
       </c>
@@ -9000,7 +9001,7 @@
         <v>7259.3860000000004</v>
       </c>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="2">
         <v>2003</v>
       </c>
@@ -9035,7 +9036,7 @@
         <v>1562.7560000000001</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="2">
         <v>2003</v>
       </c>
@@ -9070,7 +9071,7 @@
         <v>2816.5520000000001</v>
       </c>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="2">
         <v>2003</v>
       </c>
@@ -9105,7 +9106,7 @@
         <v>9374.0939999999991</v>
       </c>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="2">
         <v>2003</v>
       </c>
@@ -9140,7 +9141,7 @@
         <v>13373.24</v>
       </c>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="2">
         <v>2003</v>
       </c>
@@ -9175,7 +9176,7 @@
         <v>3182.8249999999998</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="2">
         <v>2003</v>
       </c>
@@ -9210,7 +9211,7 @@
         <v>1663.258</v>
       </c>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" s="2">
         <v>2003</v>
       </c>
@@ -9245,7 +9246,7 @@
         <v>569.14800000000002</v>
       </c>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="2">
         <v>2003</v>
       </c>
@@ -9280,7 +9281,7 @@
         <v>23044.044999999998</v>
       </c>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" s="2">
         <v>2003</v>
       </c>
@@ -9315,7 +9316,7 @@
         <v>2091.8829999999998</v>
       </c>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" s="2">
         <v>2003</v>
       </c>
@@ -9350,7 +9351,7 @@
         <v>3244.7930000000001</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" s="2">
         <v>2003</v>
       </c>
@@ -9385,7 +9386,7 @@
         <v>3232.1039999999998</v>
       </c>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" s="2">
         <v>2003</v>
       </c>
@@ -9420,7 +9421,7 @@
         <v>3912.7310000000002</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="2">
         <v>2003</v>
       </c>
@@ -9455,7 +9456,7 @@
         <v>2190.3739999999998</v>
       </c>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="2">
         <v>2003</v>
       </c>
@@ -9490,7 +9491,7 @@
         <v>4296.6620000000003</v>
       </c>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" s="2">
         <v>2003</v>
       </c>
@@ -9525,7 +9526,7 @@
         <v>3138.5149999999999</v>
       </c>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" s="2">
         <v>2003</v>
       </c>
@@ -9560,7 +9561,7 @@
         <v>1380.348</v>
       </c>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" s="2">
         <v>2003</v>
       </c>
@@ -9595,7 +9596,7 @@
         <v>6524.7529999999997</v>
       </c>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" s="2">
         <v>2003</v>
       </c>
@@ -9630,7 +9631,7 @@
         <v>572.01199999999994</v>
       </c>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" s="2">
         <v>2003</v>
       </c>
@@ -9665,7 +9666,7 @@
         <v>24510.612000000001</v>
       </c>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" s="2">
         <v>2003</v>
       </c>
@@ -9700,7 +9701,7 @@
         <v>4407.4889999999996</v>
       </c>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" s="2">
         <v>2003</v>
       </c>
@@ -9735,7 +9736,7 @@
         <v>968.69299999999998</v>
       </c>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" s="2">
         <v>2003</v>
       </c>
@@ -9770,7 +9771,7 @@
         <v>1035.884</v>
       </c>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" s="2">
         <v>2003</v>
       </c>
@@ -9805,7 +9806,7 @@
         <v>3981.107</v>
       </c>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" s="2">
         <v>2003</v>
       </c>
@@ -9840,7 +9841,7 @@
         <v>376.18200000000002</v>
       </c>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="2">
         <v>2003</v>
       </c>
@@ -9875,7 +9876,7 @@
         <v>1019.923</v>
       </c>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" s="2">
         <v>2003</v>
       </c>
@@ -9910,7 +9911,7 @@
         <v>1156.068</v>
       </c>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" s="2">
         <v>2003</v>
       </c>
@@ -9945,7 +9946,7 @@
         <v>1141.3869999999999</v>
       </c>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" s="2">
         <v>2003</v>
       </c>
@@ -9980,7 +9981,7 @@
         <v>1518.4760000000001</v>
       </c>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" s="2">
         <v>2003</v>
       </c>
@@ -10015,7 +10016,7 @@
         <v>2379.7040000000002</v>
       </c>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" s="2">
         <v>2003</v>
       </c>
@@ -10050,7 +10051,7 @@
         <v>172669.25599999999</v>
       </c>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" s="2">
         <v>2003</v>
       </c>
@@ -10085,7 +10086,7 @@
         <v>393.56799999999998</v>
       </c>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" s="2">
         <v>2003</v>
       </c>
@@ -10120,7 +10121,7 @@
         <v>3723.2620000000002</v>
       </c>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" s="2">
         <v>2003</v>
       </c>
@@ -10155,7 +10156,7 @@
         <v>783.23099999999999</v>
       </c>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" s="2">
         <v>2003</v>
       </c>
@@ -10190,7 +10191,7 @@
         <v>569.39499999999998</v>
       </c>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" s="2">
         <v>2003</v>
       </c>
@@ -10225,7 +10226,7 @@
         <v>5712.9930000000004</v>
       </c>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" s="2">
         <v>2003</v>
       </c>
@@ -10260,7 +10261,7 @@
         <v>5632.8729999999996</v>
       </c>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" s="2">
         <v>2003</v>
       </c>
@@ -10295,7 +10296,7 @@
         <v>979.05200000000002</v>
       </c>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" s="2">
         <v>2003</v>
       </c>
@@ -10330,7 +10331,7 @@
         <v>782.04300000000001</v>
       </c>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" s="2">
         <v>2003</v>
       </c>
@@ -10365,7 +10366,7 @@
         <v>231.21799999999999</v>
       </c>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" s="2">
         <v>2003</v>
       </c>
@@ -10400,7 +10401,7 @@
         <v>18045.580999999998</v>
       </c>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" s="2">
         <v>2003</v>
       </c>
@@ -10435,7 +10436,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" s="2">
         <v>2003</v>
       </c>
@@ -10470,7 +10471,7 @@
         <v>2291.4760000000001</v>
       </c>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" s="2">
         <v>2003</v>
       </c>
@@ -10505,7 +10506,7 @@
         <v>2477.8449999999998</v>
       </c>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" s="2">
         <v>2003</v>
       </c>
@@ -10540,7 +10541,7 @@
         <v>1378.8879999999999</v>
       </c>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" s="2">
         <v>2003</v>
       </c>
@@ -10575,7 +10576,7 @@
         <v>1310.1600000000001</v>
       </c>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" s="2">
         <v>2003</v>
       </c>
@@ -10610,7 +10611,7 @@
         <v>905.20600000000002</v>
       </c>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" s="2">
         <v>2003</v>
       </c>
@@ -10645,7 +10646,7 @@
         <v>4585.1819999999998</v>
       </c>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" s="2">
         <v>2003</v>
       </c>
@@ -10680,7 +10681,7 @@
         <v>691.49300000000005</v>
       </c>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" s="2">
         <v>2003</v>
       </c>
@@ -10715,7 +10716,7 @@
         <v>2625.8580000000002</v>
       </c>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" s="2">
         <v>2003</v>
       </c>
@@ -10750,7 +10751,7 @@
         <v>167.548</v>
       </c>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" s="2">
         <v>2003</v>
       </c>
@@ -10785,7 +10786,7 @@
         <v>1712.393</v>
       </c>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" s="2">
         <v>2003</v>
       </c>
@@ -10820,7 +10821,7 @@
         <v>1740.5550000000001</v>
       </c>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" s="2">
         <v>2003</v>
       </c>
@@ -10855,7 +10856,7 @@
         <v>237.328</v>
       </c>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" s="2">
         <v>2003</v>
       </c>
@@ -10890,7 +10891,7 @@
         <v>48.756</v>
       </c>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290" s="2">
         <v>2003</v>
       </c>
@@ -10925,7 +10926,7 @@
         <v>95.600999999999999</v>
       </c>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291" s="2">
         <v>2003</v>
       </c>
@@ -10960,7 +10961,7 @@
         <v>20.506</v>
       </c>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292" s="2">
         <v>2003</v>
       </c>
@@ -10995,7 +10996,7 @@
         <v>30.89</v>
       </c>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293" s="2">
         <v>2003</v>
       </c>
@@ -11030,7 +11031,7 @@
         <v>85.864000000000004</v>
       </c>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A294" s="2">
         <v>2003</v>
       </c>
@@ -11065,7 +11066,7 @@
         <v>36.139000000000003</v>
       </c>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295" s="2">
         <v>2003</v>
       </c>
@@ -11100,7 +11101,7 @@
         <v>29.777999999999999</v>
       </c>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A296" s="2">
         <v>2003</v>
       </c>
@@ -11135,7 +11136,7 @@
         <v>125.191</v>
       </c>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297" s="2">
         <v>2003</v>
       </c>
@@ -11170,7 +11171,7 @@
         <v>46510.389000000003</v>
       </c>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298" s="2">
         <v>2003</v>
       </c>
@@ -11205,7 +11206,7 @@
         <v>54.747999999999998</v>
       </c>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299" s="2">
         <v>2003</v>
       </c>
@@ -11240,7 +11241,7 @@
         <v>694.58</v>
       </c>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300" s="2">
         <v>2003</v>
       </c>
@@ -11275,7 +11276,7 @@
         <v>46.469000000000001</v>
       </c>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301" s="2">
         <v>2003</v>
       </c>
@@ -11310,7 +11311,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302" s="2">
         <v>2003</v>
       </c>
@@ -11345,7 +11346,7 @@
         <v>305.71199999999999</v>
       </c>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A303" s="2">
         <v>2003</v>
       </c>
@@ -11380,7 +11381,7 @@
         <v>562.68399999999997</v>
       </c>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A304" s="2">
         <v>2003</v>
       </c>
@@ -11415,7 +11416,7 @@
         <v>604.92399999999998</v>
       </c>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305" s="2">
         <v>2003</v>
       </c>
@@ -11450,7 +11451,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306" s="2">
         <v>2003</v>
       </c>
@@ -11485,7 +11486,7 @@
         <v>48.774999999999999</v>
       </c>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A307" s="2">
         <v>2003</v>
       </c>
@@ -11520,7 +11521,7 @@
         <v>5863.7340000000004</v>
       </c>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A308" s="2">
         <v>2003</v>
       </c>
@@ -11555,7 +11556,7 @@
         <v>160.36500000000001</v>
       </c>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A309" s="2">
         <v>2003</v>
       </c>
@@ -11590,7 +11591,7 @@
         <v>97.1</v>
       </c>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A310" s="2">
         <v>2003</v>
       </c>
@@ -11625,7 +11626,7 @@
         <v>168.02199999999999</v>
       </c>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A311" s="2">
         <v>2003</v>
       </c>
@@ -11660,7 +11661,7 @@
         <v>41.514000000000003</v>
       </c>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A312" s="2">
         <v>2003</v>
       </c>
@@ -11695,7 +11696,7 @@
         <v>56.808</v>
       </c>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A313" s="2">
         <v>2003</v>
       </c>
@@ -11730,7 +11731,7 @@
         <v>157.56200000000001</v>
       </c>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A314" s="2">
         <v>2003</v>
       </c>
@@ -11765,7 +11766,7 @@
         <v>112.443</v>
       </c>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A315" s="2">
         <v>2003</v>
       </c>
@@ -11800,7 +11801,7 @@
         <v>16.677</v>
       </c>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A316" s="2">
         <v>2003</v>
       </c>
@@ -11835,7 +11836,7 @@
         <v>147.79300000000001</v>
       </c>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A317" s="2">
         <v>2003</v>
       </c>
@@ -11870,7 +11871,7 @@
         <v>21.728000000000002</v>
       </c>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A318" s="2">
         <v>2003</v>
       </c>
@@ -11905,7 +11906,7 @@
         <v>151.131</v>
       </c>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A319" s="2">
         <v>2003</v>
       </c>
@@ -11940,7 +11941,7 @@
         <v>147.84</v>
       </c>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A320" s="2">
         <v>2003</v>
       </c>
@@ -11975,7 +11976,7 @@
         <v>35.459000000000003</v>
       </c>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A321" s="2">
         <v>2003</v>
       </c>
@@ -12010,7 +12011,7 @@
         <v>1153.444</v>
       </c>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A322" s="2">
         <v>2003</v>
       </c>
@@ -12045,7 +12046,7 @@
         <v>2527.6570000000002</v>
       </c>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A323" s="2">
         <v>2003</v>
       </c>
@@ -12080,7 +12081,7 @@
         <v>613.327</v>
       </c>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A324" s="2">
         <v>2003</v>
       </c>
@@ -12115,7 +12116,7 @@
         <v>1405.7360000000001</v>
       </c>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A325" s="2">
         <v>2003</v>
       </c>
@@ -12150,7 +12151,7 @@
         <v>3027.36</v>
       </c>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A326" s="2">
         <v>2003</v>
       </c>
@@ -12185,7 +12186,7 @@
         <v>567.35400000000004</v>
       </c>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A327" s="2">
         <v>2003</v>
       </c>
@@ -12220,7 +12221,7 @@
         <v>367.38200000000001</v>
       </c>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A328" s="2">
         <v>2003</v>
       </c>
@@ -12255,7 +12256,7 @@
         <v>5611.2740000000003</v>
       </c>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A329" s="2">
         <v>2003</v>
       </c>
@@ -12290,7 +12291,7 @@
         <v>28867.991000000002</v>
       </c>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A330" s="2">
         <v>2003</v>
       </c>
@@ -12325,7 +12326,7 @@
         <v>543.83900000000006</v>
       </c>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A331" s="2">
         <v>2003</v>
       </c>
@@ -12360,7 +12361,7 @@
         <v>2191.2939999999999</v>
       </c>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A332" s="2">
         <v>2003</v>
       </c>
@@ -12395,7 +12396,7 @@
         <v>710.91899999999998</v>
       </c>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A333" s="2">
         <v>2003</v>
       </c>
@@ -12430,7 +12431,7 @@
         <v>293.00700000000001</v>
       </c>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A334" s="2">
         <v>2003</v>
       </c>
@@ -12465,7 +12466,7 @@
         <v>7715.808</v>
       </c>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A335" s="2">
         <v>2003</v>
       </c>
@@ -12500,7 +12501,7 @@
         <v>11471.983</v>
       </c>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A336" s="2">
         <v>2003</v>
       </c>
@@ -12535,7 +12536,7 @@
         <v>1377.796</v>
       </c>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A337" s="2">
         <v>2003</v>
       </c>
@@ -12570,7 +12571,7 @@
         <v>584.01400000000001</v>
       </c>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A338" s="2">
         <v>2003</v>
       </c>
@@ -12605,7 +12606,7 @@
         <v>126.255</v>
       </c>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A339" s="2">
         <v>2003</v>
       </c>
@@ -12640,7 +12641,7 @@
         <v>26918.624</v>
       </c>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A340" s="2">
         <v>2003</v>
       </c>
@@ -12675,7 +12676,7 @@
         <v>408.28699999999998</v>
       </c>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A341" s="2">
         <v>2003</v>
       </c>
@@ -12710,7 +12711,7 @@
         <v>3558.21</v>
       </c>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A342" s="2">
         <v>2003</v>
       </c>
@@ -12745,7 +12746,7 @@
         <v>1270.3810000000001</v>
       </c>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A343" s="2">
         <v>2003</v>
       </c>
@@ -12780,7 +12781,7 @@
         <v>3063.1680000000001</v>
       </c>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A344" s="2">
         <v>2003</v>
       </c>
@@ -12815,7 +12816,7 @@
         <v>1742.21</v>
       </c>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A345" s="2">
         <v>2003</v>
       </c>
@@ -12850,7 +12851,7 @@
         <v>923.70299999999997</v>
       </c>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A346" s="2">
         <v>2003</v>
       </c>
@@ -12885,7 +12886,7 @@
         <v>4471.2690000000002</v>
       </c>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A347" s="2">
         <v>2003</v>
       </c>
@@ -12920,7 +12921,7 @@
         <v>1378.6769999999999</v>
       </c>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A348" s="2">
         <v>2003</v>
       </c>
@@ -12955,7 +12956,7 @@
         <v>6404.1580000000004</v>
       </c>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A349" s="2">
         <v>2003</v>
       </c>
@@ -12990,7 +12991,7 @@
         <v>108.252</v>
       </c>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A350" s="2">
         <v>2003</v>
       </c>
@@ -13025,7 +13026,7 @@
         <v>2266.2049999999999</v>
       </c>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A351" s="2">
         <v>2003</v>
       </c>
@@ -13060,7 +13061,7 @@
         <v>1361.61</v>
       </c>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A352" s="2">
         <v>2003</v>
       </c>
@@ -13095,7 +13096,7 @@
         <v>494.10300000000001</v>
       </c>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A353" s="2">
         <v>2003</v>
       </c>
@@ -13130,7 +13131,7 @@
         <v>235.31200000000001</v>
       </c>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A354" s="2">
         <v>2003</v>
       </c>
@@ -13165,7 +13166,7 @@
         <v>554.18899999999996</v>
       </c>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A355" s="2">
         <v>2003</v>
       </c>
@@ -13200,7 +13201,7 @@
         <v>93.031000000000006</v>
       </c>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A356" s="2">
         <v>2003</v>
       </c>
@@ -13235,7 +13236,7 @@
         <v>899.17700000000002</v>
       </c>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A357" s="2">
         <v>2003</v>
       </c>
@@ -13270,7 +13271,7 @@
         <v>1092.028</v>
       </c>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A358" s="2">
         <v>2003</v>
       </c>
@@ -13305,7 +13306,7 @@
         <v>99.480999999999995</v>
       </c>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A359" s="2">
         <v>2003</v>
       </c>
@@ -13340,7 +13341,7 @@
         <v>291.91399999999999</v>
       </c>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A360" s="2">
         <v>2003</v>
       </c>
@@ -13375,7 +13376,7 @@
         <v>816.59699999999998</v>
       </c>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A361" s="2">
         <v>2003</v>
       </c>
@@ -13410,7 +13411,7 @@
         <v>11551.474</v>
       </c>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A362" s="2">
         <v>2003</v>
       </c>
@@ -13445,7 +13446,7 @@
         <v>169.03800000000001</v>
       </c>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A363" s="2">
         <v>2003</v>
       </c>
@@ -13480,7 +13481,7 @@
         <v>1616.0509999999999</v>
       </c>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A364" s="2">
         <v>2003</v>
       </c>
@@ -13515,7 +13516,7 @@
         <v>145.494</v>
       </c>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A365" s="2">
         <v>2003</v>
       </c>
@@ -13550,7 +13551,7 @@
         <v>204.87200000000001</v>
       </c>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A366" s="2">
         <v>2003</v>
       </c>
@@ -13585,7 +13586,7 @@
         <v>1698.067</v>
       </c>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A367" s="2">
         <v>2003</v>
       </c>
@@ -13620,7 +13621,7 @@
         <v>1575.1110000000001</v>
       </c>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A368" s="2">
         <v>2003</v>
       </c>
@@ -13655,7 +13656,7 @@
         <v>525.04399999999998</v>
       </c>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A369" s="2">
         <v>2003</v>
       </c>
@@ -13690,7 +13691,7 @@
         <v>189.16900000000001</v>
       </c>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A370" s="2">
         <v>2003</v>
       </c>
@@ -13725,7 +13726,7 @@
         <v>102.22</v>
       </c>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A371" s="2">
         <v>2003</v>
       </c>
@@ -13760,7 +13761,7 @@
         <v>2404.9189999999999</v>
       </c>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A372" s="2">
         <v>2003</v>
       </c>
@@ -13795,7 +13796,7 @@
         <v>231.113</v>
       </c>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A373" s="2">
         <v>2003</v>
       </c>
@@ -13830,7 +13831,7 @@
         <v>907.71500000000003</v>
       </c>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A374" s="2">
         <v>2003</v>
       </c>
@@ -13865,7 +13866,7 @@
         <v>584.78399999999999</v>
       </c>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A375" s="2">
         <v>2003</v>
       </c>
@@ -13900,7 +13901,7 @@
         <v>205.965</v>
       </c>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A376" s="2">
         <v>2003</v>
       </c>
@@ -13935,7 +13936,7 @@
         <v>331.49299999999999</v>
       </c>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A377" s="2">
         <v>2003</v>
       </c>
@@ -13970,7 +13971,7 @@
         <v>373.01299999999998</v>
       </c>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A378" s="2">
         <v>2003</v>
       </c>
@@ -14005,7 +14006,7 @@
         <v>922.83900000000006</v>
       </c>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A379" s="2">
         <v>2003</v>
       </c>
@@ -14040,7 +14041,7 @@
         <v>779.17499999999995</v>
       </c>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A380" s="2">
         <v>2003</v>
       </c>
@@ -14075,7 +14076,7 @@
         <v>1956.386</v>
       </c>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A381" s="2">
         <v>2003</v>
       </c>
@@ -14110,7 +14111,7 @@
         <v>101.273</v>
       </c>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A382" s="2">
         <v>2003</v>
       </c>
@@ -14145,7 +14146,7 @@
         <v>613.89700000000005</v>
       </c>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A383" s="2">
         <v>2003</v>
       </c>
@@ -14180,7 +14181,7 @@
         <v>427.41500000000002</v>
       </c>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A384" s="2">
         <v>2003</v>
       </c>
@@ -14215,7 +14216,7 @@
         <v>147.25399999999999</v>
       </c>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A385" s="2">
         <v>2003</v>
       </c>
@@ -14250,7 +14251,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A386" s="2">
         <v>2003</v>
       </c>
@@ -14285,7 +14286,7 @@
         <v>51.497999999999998</v>
       </c>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A387" s="2">
         <v>2003</v>
       </c>
@@ -14320,7 +14321,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A388" s="2">
         <v>2003</v>
       </c>
@@ -14355,7 +14356,7 @@
         <v>48.981999999999999</v>
       </c>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A389" s="2">
         <v>2003</v>
       </c>
@@ -14390,7 +14391,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A390" s="2">
         <v>2003</v>
       </c>
@@ -14425,7 +14426,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A391" s="2">
         <v>2003</v>
       </c>
@@ -14460,7 +14461,7 @@
         <v>20.74</v>
       </c>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A392" s="2">
         <v>2003</v>
       </c>
@@ -14495,7 +14496,7 @@
         <v>22389.576000000001</v>
       </c>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A393" s="2">
         <v>2003</v>
       </c>
@@ -14530,7 +14531,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A394" s="2">
         <v>2003</v>
       </c>
@@ -14565,7 +14566,7 @@
         <v>30.105</v>
       </c>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A395" s="2">
         <v>2003</v>
       </c>
@@ -14600,7 +14601,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A396" s="2">
         <v>2003</v>
       </c>
@@ -14635,7 +14636,7 @@
         <v>102.657</v>
       </c>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A397" s="2">
         <v>2003</v>
       </c>
@@ -14670,7 +14671,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A398" s="2">
         <v>2003</v>
       </c>
@@ -14705,7 +14706,7 @@
         <v>11.362</v>
       </c>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A399" s="2">
         <v>2003</v>
       </c>
@@ -14740,7 +14741,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A400" s="2">
         <v>2003</v>
       </c>
@@ -14775,7 +14776,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A401" s="2">
         <v>2003</v>
       </c>
@@ -14810,7 +14811,7 @@
         <v>2833.462</v>
       </c>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A402" s="2">
         <v>2003</v>
       </c>
@@ -14845,7 +14846,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A403" s="2">
         <v>2003</v>
       </c>
@@ -14880,7 +14881,7 @@
         <v>88.054000000000002</v>
       </c>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A404" s="2">
         <v>2003</v>
       </c>
@@ -14915,7 +14916,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A405" s="2">
         <v>2003</v>
       </c>
@@ -14950,7 +14951,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A406" s="2">
         <v>2003</v>
       </c>
@@ -14985,7 +14986,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A407" s="2">
         <v>2003</v>
       </c>
@@ -15020,7 +15021,7 @@
         <v>18.902000000000001</v>
       </c>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A408" s="2">
         <v>2003</v>
       </c>
@@ -15055,7 +15056,7 @@
         <v>12.218999999999999</v>
       </c>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A409" s="2">
         <v>2003</v>
       </c>
@@ -15090,7 +15091,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A410" s="2">
         <v>2003</v>
       </c>
@@ -15125,7 +15126,7 @@
         <v>20.323</v>
       </c>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A411" s="2">
         <v>2003</v>
       </c>
@@ -15160,7 +15161,7 @@
         <v>80.950999999999993</v>
       </c>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A412" s="2">
         <v>2003</v>
       </c>
@@ -15195,7 +15196,7 @@
         <v>38.340000000000003</v>
       </c>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A413" s="2">
         <v>2003</v>
       </c>
@@ -15230,7 +15231,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A414" s="2">
         <v>2003</v>
       </c>
@@ -15265,7 +15266,7 @@
         <v>200.64699999999999</v>
       </c>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A415" s="2">
         <v>2003</v>
       </c>
@@ -15300,7 +15301,7 @@
         <v>469.13900000000001</v>
       </c>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A416" s="2">
         <v>2003</v>
       </c>
@@ -15335,7 +15336,7 @@
         <v>106.687</v>
       </c>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A417" s="2">
         <v>2003</v>
       </c>
@@ -15370,7 +15371,7 @@
         <v>124.645</v>
       </c>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A418" s="2">
         <v>2003</v>
       </c>
@@ -15405,7 +15406,7 @@
         <v>821.74400000000003</v>
       </c>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A419" s="2">
         <v>2003</v>
       </c>
@@ -15440,7 +15441,7 @@
         <v>117.77200000000001</v>
       </c>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A420" s="2">
         <v>2003</v>
       </c>
@@ -15475,7 +15476,7 @@
         <v>239.952</v>
       </c>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A421" s="2">
         <v>2003</v>
       </c>
@@ -15510,7 +15511,7 @@
         <v>650.27200000000005</v>
       </c>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A422" s="2">
         <v>2003</v>
       </c>
@@ -15545,7 +15546,7 @@
         <v>7932.5709999999999</v>
       </c>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A423" s="2">
         <v>2003</v>
       </c>
@@ -15580,7 +15581,7 @@
         <v>180.233</v>
       </c>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A424" s="2">
         <v>2003</v>
       </c>
@@ -15615,7 +15616,7 @@
         <v>1017.813</v>
       </c>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A425" s="2">
         <v>2003</v>
       </c>
@@ -15650,7 +15651,7 @@
         <v>250.90799999999999</v>
       </c>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A426" s="2">
         <v>2003</v>
       </c>
@@ -15685,7 +15686,7 @@
         <v>284.96199999999999</v>
       </c>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A427" s="2">
         <v>2003</v>
       </c>
@@ -15720,7 +15721,7 @@
         <v>2556.8789999999999</v>
       </c>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A428" s="2">
         <v>2003</v>
       </c>
@@ -15755,7 +15756,7 @@
         <v>2612.346</v>
       </c>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A429" s="2">
         <v>2003</v>
       </c>
@@ -15790,7 +15791,7 @@
         <v>591.404</v>
       </c>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A430" s="2">
         <v>2003</v>
       </c>
@@ -15825,7 +15826,7 @@
         <v>232.13300000000001</v>
       </c>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A431" s="2">
         <v>2003</v>
       </c>
@@ -15860,7 +15861,7 @@
         <v>78.352000000000004</v>
       </c>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A432" s="2">
         <v>2003</v>
       </c>
@@ -15895,7 +15896,7 @@
         <v>5843.9790000000003</v>
       </c>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A433" s="2">
         <v>2003</v>
       </c>
@@ -15930,7 +15931,7 @@
         <v>319.738</v>
       </c>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A434" s="2">
         <v>2003</v>
       </c>
@@ -15965,7 +15966,7 @@
         <v>633.83600000000001</v>
       </c>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A435" s="2">
         <v>2003</v>
       </c>
@@ -16000,7 +16001,7 @@
         <v>477.67500000000001</v>
       </c>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A436" s="2">
         <v>2003</v>
       </c>
@@ -16035,7 +16036,7 @@
         <v>592.60500000000002</v>
       </c>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A437" s="2">
         <v>2003</v>
       </c>
@@ -16070,7 +16071,7 @@
         <v>464.83</v>
       </c>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A438" s="2">
         <v>2003</v>
       </c>
@@ -16105,7 +16106,7 @@
         <v>354.89299999999997</v>
       </c>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A439" s="2">
         <v>2003</v>
       </c>
@@ -16140,7 +16141,7 @@
         <v>378.18200000000002</v>
       </c>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A440" s="2">
         <v>2003</v>
       </c>
@@ -16175,7 +16176,7 @@
         <v>288.83300000000003</v>
       </c>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A441" s="2">
         <v>2003</v>
       </c>
@@ -16210,7 +16211,7 @@
         <v>554.21299999999997</v>
       </c>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A442" s="2">
         <v>2003</v>
       </c>
@@ -16245,7 +16246,7 @@
         <v>92.652000000000001</v>
       </c>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A443" s="2">
         <v>2003</v>
       </c>
@@ -16280,7 +16281,7 @@
         <v>710.88300000000004</v>
       </c>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A444" s="2">
         <v>2003</v>
       </c>
@@ -16315,7 +16316,7 @@
         <v>189.57900000000001</v>
       </c>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A445" s="2">
         <v>2003</v>
       </c>
@@ -16350,7 +16351,7 @@
         <v>131.38300000000001</v>
       </c>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A446" s="2">
         <v>2003</v>
       </c>
@@ -16385,7 +16386,7 @@
         <v>880.41700000000003</v>
       </c>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A447" s="2">
         <v>2003</v>
       </c>
@@ -16420,7 +16421,7 @@
         <v>1052.316</v>
       </c>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A448" s="2">
         <v>2003</v>
       </c>
@@ -16455,7 +16456,7 @@
         <v>86.506</v>
       </c>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A449" s="2">
         <v>2003</v>
       </c>
@@ -16490,7 +16491,7 @@
         <v>104.651</v>
       </c>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A450" s="2">
         <v>2003</v>
       </c>
@@ -16525,7 +16526,7 @@
         <v>1145</v>
       </c>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A451" s="2">
         <v>2003</v>
       </c>
@@ -16560,7 +16561,7 @@
         <v>86.507999999999996</v>
       </c>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A452" s="2">
         <v>2003</v>
       </c>
@@ -16595,7 +16596,7 @@
         <v>548.39</v>
       </c>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A453" s="2">
         <v>2003</v>
       </c>
@@ -16630,7 +16631,7 @@
         <v>1102.2329999999999</v>
       </c>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A454" s="2">
         <v>2003</v>
       </c>
@@ -16665,7 +16666,7 @@
         <v>11797.261</v>
       </c>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A455" s="2">
         <v>2003</v>
       </c>
@@ -16700,7 +16701,7 @@
         <v>270.31200000000001</v>
       </c>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A456" s="2">
         <v>2003</v>
       </c>
@@ -16735,7 +16736,7 @@
         <v>1640.9670000000001</v>
       </c>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A457" s="2">
         <v>2003</v>
       </c>
@@ -16770,7 +16771,7 @@
         <v>284.38799999999998</v>
       </c>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A458" s="2">
         <v>2003</v>
       </c>
@@ -16805,7 +16806,7 @@
         <v>480.53500000000003</v>
       </c>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A459" s="2">
         <v>2003</v>
       </c>
@@ -16840,7 +16841,7 @@
         <v>6671.8639999999996</v>
       </c>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A460" s="2">
         <v>2003</v>
       </c>
@@ -16875,7 +16876,7 @@
         <v>5618.4889999999996</v>
       </c>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A461" s="2">
         <v>2003</v>
       </c>
@@ -16910,7 +16911,7 @@
         <v>935.15300000000002</v>
       </c>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A462" s="2">
         <v>2003</v>
       </c>
@@ -16945,7 +16946,7 @@
         <v>902.24199999999996</v>
       </c>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A463" s="2">
         <v>2003</v>
       </c>
@@ -16980,7 +16981,7 @@
         <v>115.11</v>
       </c>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A464" s="2">
         <v>2003</v>
       </c>
@@ -17015,7 +17016,7 @@
         <v>5065.308</v>
       </c>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A465" s="2">
         <v>2003</v>
       </c>
@@ -17050,7 +17051,7 @@
         <v>341.03800000000001</v>
       </c>
     </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A466" s="2">
         <v>2003</v>
       </c>
@@ -17085,7 +17086,7 @@
         <v>2142.078</v>
       </c>
     </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A467" s="2">
         <v>2003</v>
       </c>
@@ -17120,7 +17121,7 @@
         <v>1083.145</v>
       </c>
     </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A468" s="2">
         <v>2003</v>
       </c>
@@ -17155,7 +17156,7 @@
         <v>275.024</v>
       </c>
     </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A469" s="2">
         <v>2003</v>
       </c>
@@ -17190,7 +17191,7 @@
         <v>607.94100000000003</v>
       </c>
     </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A470" s="2">
         <v>2003</v>
       </c>
@@ -17225,7 +17226,7 @@
         <v>583.83100000000002</v>
       </c>
     </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A471" s="2">
         <v>2003</v>
       </c>
@@ -17260,7 +17261,7 @@
         <v>696.005</v>
       </c>
     </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A472" s="2">
         <v>2003</v>
       </c>
@@ -17295,7 +17296,7 @@
         <v>268.97500000000002</v>
       </c>
     </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A473" s="2">
         <v>2003</v>
       </c>
@@ -17330,7 +17331,7 @@
         <v>1046.6790000000001</v>
       </c>
     </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A474" s="2">
         <v>2003</v>
       </c>
@@ -17365,7 +17366,7 @@
         <v>188.233</v>
       </c>
     </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A475" s="2">
         <v>2003</v>
       </c>
@@ -17400,7 +17401,7 @@
         <v>1527.213</v>
       </c>
     </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A476" s="2">
         <v>2003</v>
       </c>
@@ -17435,7 +17436,7 @@
         <v>527.03399999999999</v>
       </c>
     </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A477" s="2">
         <v>2003</v>
       </c>
@@ -17470,7 +17471,7 @@
         <v>275.10000000000002</v>
       </c>
     </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A478" s="2">
         <v>2003</v>
       </c>
@@ -17505,7 +17506,7 @@
         <v>532.32600000000002</v>
       </c>
     </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A479" s="2">
         <v>2003</v>
       </c>
@@ -17540,7 +17541,7 @@
         <v>970.34799999999996</v>
       </c>
     </row>
-    <row r="480" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A480" s="2">
         <v>2003</v>
       </c>
@@ -17575,7 +17576,7 @@
         <v>152.126</v>
       </c>
     </row>
-    <row r="481" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A481" s="2">
         <v>2003</v>
       </c>
@@ -17610,7 +17611,7 @@
         <v>133.29300000000001</v>
       </c>
     </row>
-    <row r="482" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A482" s="2">
         <v>2003</v>
       </c>
@@ -17645,7 +17646,7 @@
         <v>918.38199999999995</v>
       </c>
     </row>
-    <row r="483" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A483" s="2">
         <v>2003</v>
       </c>
@@ -17680,7 +17681,7 @@
         <v>164.62200000000001</v>
       </c>
     </row>
-    <row r="484" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A484" s="2">
         <v>2003</v>
       </c>
@@ -17715,7 +17716,7 @@
         <v>524.77800000000002</v>
       </c>
     </row>
-    <row r="485" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A485" s="2">
         <v>2003</v>
       </c>
@@ -17750,7 +17751,7 @@
         <v>1032.623</v>
       </c>
     </row>
-    <row r="486" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A486" s="2">
         <v>2003</v>
       </c>
@@ -17785,7 +17786,7 @@
         <v>9117.3860000000004</v>
       </c>
     </row>
-    <row r="487" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A487" s="2">
         <v>2003</v>
       </c>
@@ -17820,7 +17821,7 @@
         <v>323.721</v>
       </c>
     </row>
-    <row r="488" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A488" s="2">
         <v>2003</v>
       </c>
@@ -17855,7 +17856,7 @@
         <v>1773.518</v>
       </c>
     </row>
-    <row r="489" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A489" s="2">
         <v>2003</v>
       </c>
@@ -17890,7 +17891,7 @@
         <v>439.32</v>
       </c>
     </row>
-    <row r="490" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A490" s="2">
         <v>2003</v>
       </c>
@@ -17925,7 +17926,7 @@
         <v>470.15699999999998</v>
       </c>
     </row>
-    <row r="491" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A491" s="2">
         <v>2003</v>
       </c>
@@ -17960,7 +17961,7 @@
         <v>2295.009</v>
       </c>
     </row>
-    <row r="492" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A492" s="2">
         <v>2003</v>
       </c>
@@ -17995,7 +17996,7 @@
         <v>2020.83</v>
       </c>
     </row>
-    <row r="493" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A493" s="2">
         <v>2003</v>
       </c>
@@ -18030,7 +18031,7 @@
         <v>1348.0730000000001</v>
       </c>
     </row>
-    <row r="494" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A494" s="2">
         <v>2003</v>
       </c>
@@ -18065,7 +18066,7 @@
         <v>490.05399999999997</v>
       </c>
     </row>
-    <row r="495" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A495" s="2">
         <v>2003</v>
       </c>
@@ -18100,7 +18101,7 @@
         <v>168.126</v>
       </c>
     </row>
-    <row r="496" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A496" s="2">
         <v>2003</v>
       </c>
@@ -18135,7 +18136,7 @@
         <v>2305.27</v>
       </c>
     </row>
-    <row r="497" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A497" s="2">
         <v>2003</v>
       </c>
@@ -18170,7 +18171,7 @@
         <v>404.64699999999999</v>
       </c>
     </row>
-    <row r="498" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A498" s="2">
         <v>2003</v>
       </c>
@@ -18205,7 +18206,7 @@
         <v>1015.5170000000001</v>
       </c>
     </row>
-    <row r="499" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A499" s="2">
         <v>2003</v>
       </c>
@@ -18240,7 +18241,7 @@
         <v>729.35</v>
       </c>
     </row>
-    <row r="500" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A500" s="2">
         <v>2003</v>
       </c>
@@ -18275,7 +18276,7 @@
         <v>261.09399999999999</v>
       </c>
     </row>
-    <row r="501" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A501" s="2">
         <v>2003</v>
       </c>
@@ -18310,7 +18311,7 @@
         <v>801.81299999999999</v>
       </c>
     </row>
-    <row r="502" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A502" s="2">
         <v>2003</v>
       </c>
@@ -18345,7 +18346,7 @@
         <v>572.76400000000001</v>
       </c>
     </row>
-    <row r="503" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A503" s="2">
         <v>2003</v>
       </c>
@@ -18380,7 +18381,7 @@
         <v>1254.011</v>
       </c>
     </row>
-    <row r="504" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A504" s="2">
         <v>2003</v>
       </c>
@@ -18415,7 +18416,7 @@
         <v>778.096</v>
       </c>
     </row>
-    <row r="505" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A505" s="2">
         <v>2003</v>
       </c>
@@ -18450,7 +18451,7 @@
         <v>937.99300000000005</v>
       </c>
     </row>
-    <row r="506" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A506" s="2">
         <v>2003</v>
       </c>
@@ -18485,7 +18486,7 @@
         <v>151.06800000000001</v>
       </c>
     </row>
-    <row r="507" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A507" s="2">
         <v>2003</v>
       </c>
@@ -18520,7 +18521,7 @@
         <v>1253.761</v>
       </c>
     </row>
-    <row r="508" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A508" s="2">
         <v>2003</v>
       </c>
@@ -18555,7 +18556,7 @@
         <v>385.44499999999999</v>
       </c>
     </row>
-    <row r="509" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A509" s="2">
         <v>2003</v>
       </c>
@@ -18590,7 +18591,7 @@
         <v>348.01100000000002</v>
       </c>
     </row>
-    <row r="510" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A510" s="2">
         <v>2003</v>
       </c>
@@ -18625,7 +18626,7 @@
         <v>966.29499999999996</v>
       </c>
     </row>
-    <row r="511" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A511" s="2">
         <v>2003</v>
       </c>
@@ -18660,7 +18661,7 @@
         <v>652.58799999999997</v>
       </c>
     </row>
-    <row r="512" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A512" s="2">
         <v>2003</v>
       </c>
@@ -18695,7 +18696,7 @@
         <v>617.84199999999998</v>
       </c>
     </row>
-    <row r="513" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A513" s="2">
         <v>2003</v>
       </c>
@@ -18730,7 +18731,7 @@
         <v>28.045000000000002</v>
       </c>
     </row>
-    <row r="514" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A514" s="2">
         <v>2003</v>
       </c>
@@ -18765,7 +18766,7 @@
         <v>475.62900000000002</v>
       </c>
     </row>
-    <row r="515" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A515" s="2">
         <v>2003</v>
       </c>
@@ -18800,7 +18801,7 @@
         <v>65.054000000000002</v>
       </c>
     </row>
-    <row r="516" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A516" s="2">
         <v>2003</v>
       </c>
@@ -18835,7 +18836,7 @@
         <v>203.03100000000001</v>
       </c>
     </row>
-    <row r="517" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A517" s="2">
         <v>2003</v>
       </c>
@@ -18870,7 +18871,7 @@
         <v>1017.362</v>
       </c>
     </row>
-    <row r="518" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A518" s="2">
         <v>2003</v>
       </c>
@@ -18905,7 +18906,7 @@
         <v>4044.0059999999999</v>
       </c>
     </row>
-    <row r="519" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A519" s="2">
         <v>2003</v>
       </c>
@@ -18940,7 +18941,7 @@
         <v>208.79</v>
       </c>
     </row>
-    <row r="520" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A520" s="2">
         <v>2003</v>
       </c>
@@ -18975,7 +18976,7 @@
         <v>1044.319</v>
       </c>
     </row>
-    <row r="521" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A521" s="2">
         <v>2003</v>
       </c>
@@ -19010,7 +19011,7 @@
         <v>370.03899999999999</v>
       </c>
     </row>
-    <row r="522" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A522" s="2">
         <v>2003</v>
       </c>
@@ -19045,7 +19046,7 @@
         <v>299.88499999999999</v>
       </c>
     </row>
-    <row r="523" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A523" s="2">
         <v>2003</v>
       </c>
@@ -19080,7 +19081,7 @@
         <v>2238.84</v>
       </c>
     </row>
-    <row r="524" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A524" s="2">
         <v>2003</v>
       </c>
@@ -19115,7 +19116,7 @@
         <v>2637.2759999999998</v>
       </c>
     </row>
-    <row r="525" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A525" s="2">
         <v>2003</v>
       </c>
@@ -19150,7 +19151,7 @@
         <v>679.827</v>
       </c>
     </row>
-    <row r="526" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A526" s="2">
         <v>2003</v>
       </c>
@@ -19185,7 +19186,7 @@
         <v>604.23</v>
       </c>
     </row>
-    <row r="527" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A527" s="2">
         <v>2003</v>
       </c>
@@ -19220,7 +19221,7 @@
         <v>251.03800000000001</v>
       </c>
     </row>
-    <row r="528" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A528" s="2">
         <v>2003</v>
       </c>
@@ -19255,7 +19256,7 @@
         <v>2535.5120000000002</v>
       </c>
     </row>
-    <row r="529" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A529" s="2">
         <v>2003</v>
       </c>
@@ -19290,7 +19291,7 @@
         <v>211.596</v>
       </c>
     </row>
-    <row r="530" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A530" s="2">
         <v>2003</v>
       </c>
@@ -19325,7 +19326,7 @@
         <v>1053.0999999999999</v>
       </c>
     </row>
-    <row r="531" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A531" s="2">
         <v>2003</v>
       </c>
@@ -19360,7 +19361,7 @@
         <v>439.48599999999999</v>
       </c>
     </row>
-    <row r="532" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A532" s="2">
         <v>2003</v>
       </c>
@@ -19395,7 +19396,7 @@
         <v>846.86300000000006</v>
       </c>
     </row>
-    <row r="533" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A533" s="2">
         <v>2003</v>
       </c>
@@ -19430,7 +19431,7 @@
         <v>507.24200000000002</v>
       </c>
     </row>
-    <row r="534" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A534" s="2">
         <v>2003</v>
       </c>
@@ -19465,7 +19466,7 @@
         <v>498.93299999999999</v>
       </c>
     </row>
-    <row r="535" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A535" s="2">
         <v>2003</v>
       </c>
@@ -19500,7 +19501,7 @@
         <v>269.13400000000001</v>
       </c>
     </row>
-    <row r="536" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A536" s="2">
         <v>2003</v>
       </c>
@@ -19535,7 +19536,7 @@
         <v>85.67</v>
       </c>
     </row>
-    <row r="537" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A537" s="2">
         <v>2003</v>
       </c>
@@ -19570,7 +19571,7 @@
         <v>377.59199999999998</v>
       </c>
     </row>
-    <row r="538" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A538" s="2">
         <v>2003</v>
       </c>
@@ -19605,7 +19606,7 @@
         <v>50.911000000000001</v>
       </c>
     </row>
-    <row r="539" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A539" s="2">
         <v>2003</v>
       </c>
@@ -19640,7 +19641,7 @@
         <v>716.77700000000004</v>
       </c>
     </row>
-    <row r="540" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A540" s="2">
         <v>2003</v>
       </c>
@@ -19675,7 +19676,7 @@
         <v>109.65900000000001</v>
       </c>
     </row>
-    <row r="541" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A541" s="2">
         <v>2003</v>
       </c>
@@ -19710,7 +19711,7 @@
         <v>388.161</v>
       </c>
     </row>
-    <row r="542" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A542" s="2">
         <v>2003</v>
       </c>
@@ -19745,7 +19746,7 @@
         <v>886.74699999999996</v>
       </c>
     </row>
-    <row r="543" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A543" s="2">
         <v>2003</v>
       </c>
@@ -19780,7 +19781,7 @@
         <v>2779.69</v>
       </c>
     </row>
-    <row r="544" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A544" s="2">
         <v>2003</v>
       </c>
@@ -19815,7 +19816,7 @@
         <v>3094.2550000000001</v>
       </c>
     </row>
-    <row r="545" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A545" s="2">
         <v>2003</v>
       </c>
@@ -19850,7 +19851,7 @@
         <v>1154.9580000000001</v>
       </c>
     </row>
-    <row r="546" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A546" s="2">
         <v>2003</v>
       </c>
@@ -19885,7 +19886,7 @@
         <v>2058.34</v>
       </c>
     </row>
-    <row r="547" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A547" s="2">
         <v>2003</v>
       </c>
@@ -19920,7 +19921,7 @@
         <v>1595.4390000000001</v>
       </c>
     </row>
-    <row r="548" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A548" s="2">
         <v>2003</v>
       </c>
@@ -19955,7 +19956,7 @@
         <v>2013.6489999999999</v>
       </c>
     </row>
-    <row r="549" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A549" s="2">
         <v>2003</v>
       </c>
@@ -19990,7 +19991,7 @@
         <v>2781.154</v>
       </c>
     </row>
-    <row r="550" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A550" s="2">
         <v>2003</v>
       </c>
@@ -20025,7 +20026,7 @@
         <v>14575.614</v>
       </c>
     </row>
-    <row r="551" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A551" s="2">
         <v>2003</v>
       </c>
@@ -20060,7 +20061,7 @@
         <v>674.42</v>
       </c>
     </row>
-    <row r="552" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A552" s="2">
         <v>2003</v>
       </c>
@@ -20095,7 +20096,7 @@
         <v>3013.636</v>
       </c>
     </row>
-    <row r="553" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A553" s="2">
         <v>2003</v>
       </c>
@@ -20130,7 +20131,7 @@
         <v>6521.652</v>
       </c>
     </row>
-    <row r="554" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A554" s="2">
         <v>2003</v>
       </c>
@@ -20165,7 +20166,7 @@
         <v>834.80499999999995</v>
       </c>
     </row>
-    <row r="555" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A555" s="2">
         <v>2003</v>
       </c>
@@ -20200,7 +20201,7 @@
         <v>11692.341</v>
       </c>
     </row>
-    <row r="556" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A556" s="2">
         <v>2003</v>
       </c>
@@ -20235,7 +20236,7 @@
         <v>5625.357</v>
       </c>
     </row>
-    <row r="557" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A557" s="2">
         <v>2003</v>
       </c>
@@ -20270,7 +20271,7 @@
         <v>2538.9659999999999</v>
       </c>
     </row>
-    <row r="558" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A558" s="2">
         <v>2003</v>
       </c>
@@ -20305,7 +20306,7 @@
         <v>1608.6310000000001</v>
       </c>
     </row>
-    <row r="559" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A559" s="2">
         <v>2003</v>
       </c>
@@ -20340,7 +20341,7 @@
         <v>1572.3720000000001</v>
       </c>
     </row>
-    <row r="560" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A560" s="2">
         <v>2003</v>
       </c>
@@ -20375,7 +20376,7 @@
         <v>4792.4489999999996</v>
       </c>
     </row>
-    <row r="561" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A561" s="2">
         <v>2003</v>
       </c>
@@ -20410,7 +20411,7 @@
         <v>2890.7759999999998</v>
       </c>
     </row>
-    <row r="562" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A562" s="2">
         <v>2003</v>
       </c>
@@ -20445,7 +20446,7 @@
         <v>1722.923</v>
       </c>
     </row>
-    <row r="563" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A563" s="2">
         <v>2003</v>
       </c>
@@ -20480,7 +20481,7 @@
         <v>1395.1279999999999</v>
       </c>
     </row>
-    <row r="564" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A564" s="2">
         <v>2003</v>
       </c>
@@ -20515,7 +20516,7 @@
         <v>21234.999</v>
       </c>
     </row>
-    <row r="565" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A565" s="2">
         <v>2003</v>
       </c>
@@ -20550,7 +20551,7 @@
         <v>1284.3</v>
       </c>
     </row>
-    <row r="566" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A566" s="2">
         <v>2003</v>
       </c>
@@ -20585,7 +20586,7 @@
         <v>3392.06</v>
       </c>
     </row>
-    <row r="567" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A567" s="2">
         <v>2003</v>
       </c>
@@ -20620,7 +20621,7 @@
         <v>2608.933</v>
       </c>
     </row>
-    <row r="568" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A568" s="2">
         <v>2003</v>
       </c>
@@ -20655,7 +20656,7 @@
         <v>1471.8869999999999</v>
       </c>
     </row>
-    <row r="569" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A569" s="2">
         <v>2003</v>
       </c>
@@ -20690,7 +20691,7 @@
         <v>3135.4050000000002</v>
       </c>
     </row>
-    <row r="570" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A570" s="2">
         <v>2003</v>
       </c>
@@ -20725,7 +20726,7 @@
         <v>491.52100000000002</v>
       </c>
     </row>
-    <row r="571" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A571" s="2">
         <v>2003</v>
       </c>
@@ -20760,7 +20761,7 @@
         <v>4389.2579999999998</v>
       </c>
     </row>
-    <row r="572" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A572" s="2">
         <v>2003</v>
       </c>
@@ -20795,7 +20796,7 @@
         <v>1604.867</v>
       </c>
     </row>
-    <row r="573" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A573" s="2">
         <v>2003</v>
       </c>
@@ -20830,7 +20831,7 @@
         <v>1503.3230000000001</v>
       </c>
     </row>
-    <row r="574" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A574" s="2">
         <v>2003</v>
       </c>
@@ -20865,7 +20866,7 @@
         <v>736.25300000000004</v>
       </c>
     </row>
-    <row r="575" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A575" s="2">
         <v>2003</v>
       </c>
@@ -20900,7 +20901,7 @@
         <v>1399.2339999999999</v>
       </c>
     </row>
-    <row r="576" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A576" s="2">
         <v>2003</v>
       </c>
@@ -20935,7 +20936,7 @@
         <v>353.85599999999999</v>
       </c>
     </row>
-    <row r="577" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A577" s="2">
         <v>2003</v>
       </c>
@@ -20970,7 +20971,7 @@
         <v>470.27499999999998</v>
       </c>
     </row>
-    <row r="578" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A578" s="2">
         <v>2003</v>
       </c>
@@ -21005,7 +21006,7 @@
         <v>1544.8620000000001</v>
       </c>
     </row>
-    <row r="579" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A579" s="2">
         <v>2003</v>
       </c>
@@ -21040,7 +21041,7 @@
         <v>501.40800000000002</v>
       </c>
     </row>
-    <row r="580" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A580" s="2">
         <v>2003</v>
       </c>
@@ -21075,7 +21076,7 @@
         <v>945.16300000000001</v>
       </c>
     </row>
-    <row r="581" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A581" s="2">
         <v>2003</v>
       </c>
@@ -21110,7 +21111,7 @@
         <v>1946.2049999999999</v>
       </c>
     </row>
-    <row r="582" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A582" s="2">
         <v>2003</v>
       </c>
@@ -21145,7 +21146,7 @@
         <v>11429.632</v>
       </c>
     </row>
-    <row r="583" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A583" s="2">
         <v>2003</v>
       </c>
@@ -21180,7 +21181,7 @@
         <v>984.05899999999997</v>
       </c>
     </row>
-    <row r="584" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A584" s="2">
         <v>2003</v>
       </c>
@@ -21215,7 +21216,7 @@
         <v>2618.9850000000001</v>
       </c>
     </row>
-    <row r="585" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A585" s="2">
         <v>2003</v>
       </c>
@@ -21250,7 +21251,7 @@
         <v>787.88900000000001</v>
       </c>
     </row>
-    <row r="586" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A586" s="2">
         <v>2003</v>
       </c>
@@ -21285,7 +21286,7 @@
         <v>794.12699999999995</v>
       </c>
     </row>
-    <row r="587" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A587" s="2">
         <v>2003</v>
       </c>
@@ -21320,7 +21321,7 @@
         <v>5067.8609999999999</v>
       </c>
     </row>
-    <row r="588" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A588" s="2">
         <v>2003</v>
       </c>
@@ -21355,7 +21356,7 @@
         <v>4505.1319999999996</v>
       </c>
     </row>
-    <row r="589" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A589" s="2">
         <v>2003</v>
       </c>
@@ -21390,7 +21391,7 @@
         <v>2223.4859999999999</v>
       </c>
     </row>
-    <row r="590" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A590" s="2">
         <v>2003</v>
       </c>
@@ -21425,7 +21426,7 @@
         <v>872.09400000000005</v>
       </c>
     </row>
-    <row r="591" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A591" s="2">
         <v>2003</v>
       </c>
@@ -21460,7 +21461,7 @@
         <v>568.36900000000003</v>
       </c>
     </row>
-    <row r="592" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A592" s="2">
         <v>2003</v>
       </c>
@@ -21495,7 +21496,7 @@
         <v>3303.683</v>
       </c>
     </row>
-    <row r="593" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A593" s="2">
         <v>2003</v>
       </c>
@@ -21530,7 +21531,7 @@
         <v>884.726</v>
       </c>
     </row>
-    <row r="594" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A594" s="2">
         <v>2003</v>
       </c>
@@ -21565,7 +21566,7 @@
         <v>2723.9180000000001</v>
       </c>
     </row>
-    <row r="595" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A595" s="2">
         <v>2003</v>
       </c>
@@ -21600,7 +21601,7 @@
         <v>1028.4169999999999</v>
       </c>
     </row>
-    <row r="596" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A596" s="2">
         <v>2003</v>
       </c>
@@ -21635,7 +21636,7 @@
         <v>478.36200000000002</v>
       </c>
     </row>
-    <row r="597" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A597" s="2">
         <v>2003</v>
       </c>
@@ -21670,7 +21671,7 @@
         <v>1153.4659999999999</v>
       </c>
     </row>
-    <row r="598" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A598" s="2">
         <v>2003</v>
       </c>
@@ -21705,7 +21706,7 @@
         <v>1838.4839999999999</v>
       </c>
     </row>
-    <row r="599" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A599" s="2">
         <v>2003</v>
       </c>
@@ -21740,7 +21741,7 @@
         <v>1845.6220000000001</v>
       </c>
     </row>
-    <row r="600" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A600" s="2">
         <v>2003</v>
       </c>
@@ -21775,7 +21776,7 @@
         <v>652.50199999999995</v>
       </c>
     </row>
-    <row r="601" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A601" s="2">
         <v>2003</v>
       </c>
@@ -21810,7 +21811,7 @@
         <v>2293.1799999999998</v>
       </c>
     </row>
-    <row r="602" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A602" s="2">
         <v>2003</v>
       </c>
@@ -21845,7 +21846,7 @@
         <v>364.09399999999999</v>
       </c>
     </row>
-    <row r="603" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A603" s="2">
         <v>2003</v>
       </c>
@@ -21880,7 +21881,7 @@
         <v>2728.3420000000001</v>
       </c>
     </row>
-    <row r="604" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="604" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A604" s="2">
         <v>2003</v>
       </c>
@@ -21915,7 +21916,7 @@
         <v>654.29999999999995</v>
       </c>
     </row>
-    <row r="605" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="605" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A605" s="2">
         <v>2003</v>
       </c>
@@ -21956,6 +21957,1176 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1148C80-2FFF-48FD-9E00-D08F8B24D0C3}">
+  <dimension ref="A1:K33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:K33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2003</v>
+      </c>
+      <c r="B2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2">
+        <v>3416</v>
+      </c>
+      <c r="F2">
+        <v>68217</v>
+      </c>
+      <c r="G2">
+        <v>4756.7089999999998</v>
+      </c>
+      <c r="H2">
+        <v>49780.362000000001</v>
+      </c>
+      <c r="I2">
+        <v>16933.652999999998</v>
+      </c>
+      <c r="J2">
+        <v>735.98500000000001</v>
+      </c>
+      <c r="K2">
+        <v>30112.505000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2003</v>
+      </c>
+      <c r="B3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E3">
+        <v>4518</v>
+      </c>
+      <c r="F3">
+        <v>250442</v>
+      </c>
+      <c r="G3">
+        <v>19720.254000000001</v>
+      </c>
+      <c r="H3">
+        <v>72454.010999999999</v>
+      </c>
+      <c r="I3">
+        <v>39304.002999999997</v>
+      </c>
+      <c r="J3">
+        <v>1364.0360000000001</v>
+      </c>
+      <c r="K3">
+        <v>23864.637999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2003</v>
+      </c>
+      <c r="B4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E4">
+        <v>1324</v>
+      </c>
+      <c r="F4">
+        <v>7760</v>
+      </c>
+      <c r="G4">
+        <v>342.53500000000003</v>
+      </c>
+      <c r="H4">
+        <v>2222.2640000000001</v>
+      </c>
+      <c r="I4">
+        <v>823.21500000000003</v>
+      </c>
+      <c r="J4">
+        <v>69.742000000000004</v>
+      </c>
+      <c r="K4">
+        <v>1009.489</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2003</v>
+      </c>
+      <c r="B5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5">
+        <v>2174</v>
+      </c>
+      <c r="F5">
+        <v>14514</v>
+      </c>
+      <c r="G5">
+        <v>504.68700000000001</v>
+      </c>
+      <c r="H5">
+        <v>2432.962</v>
+      </c>
+      <c r="I5">
+        <v>978.89</v>
+      </c>
+      <c r="J5">
+        <v>84.346000000000004</v>
+      </c>
+      <c r="K5">
+        <v>686.35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2003</v>
+      </c>
+      <c r="B6" t="s">
+        <v>83</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6">
+        <v>6149</v>
+      </c>
+      <c r="F6">
+        <v>213947</v>
+      </c>
+      <c r="G6">
+        <v>14527.938</v>
+      </c>
+      <c r="H6">
+        <v>175351.62599999999</v>
+      </c>
+      <c r="I6">
+        <v>52770.883999999998</v>
+      </c>
+      <c r="J6">
+        <v>5855.4880000000003</v>
+      </c>
+      <c r="K6">
+        <v>86066.498000000007</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2003</v>
+      </c>
+      <c r="B7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7">
+        <v>2007</v>
+      </c>
+      <c r="F7">
+        <v>10948</v>
+      </c>
+      <c r="G7">
+        <v>469.75700000000001</v>
+      </c>
+      <c r="H7">
+        <v>5949.0510000000004</v>
+      </c>
+      <c r="I7">
+        <v>3138.9920000000002</v>
+      </c>
+      <c r="J7">
+        <v>145.03</v>
+      </c>
+      <c r="K7">
+        <v>4428.0540000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>2003</v>
+      </c>
+      <c r="B8" t="s">
+        <v>85</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8">
+        <v>9601</v>
+      </c>
+      <c r="F8">
+        <v>34035</v>
+      </c>
+      <c r="G8">
+        <v>1304.492</v>
+      </c>
+      <c r="H8">
+        <v>46811.65</v>
+      </c>
+      <c r="I8">
+        <v>13544.663</v>
+      </c>
+      <c r="J8">
+        <v>712.70500000000004</v>
+      </c>
+      <c r="K8">
+        <v>9475.7119999999995</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>2003</v>
+      </c>
+      <c r="B9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9">
+        <v>7007</v>
+      </c>
+      <c r="F9">
+        <v>352191</v>
+      </c>
+      <c r="G9">
+        <v>28635.073</v>
+      </c>
+      <c r="H9">
+        <v>122352.408</v>
+      </c>
+      <c r="I9">
+        <v>71089.554000000004</v>
+      </c>
+      <c r="J9">
+        <v>1275.54</v>
+      </c>
+      <c r="K9">
+        <v>37734.574999999997</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>2003</v>
+      </c>
+      <c r="B10" t="s">
+        <v>110</v>
+      </c>
+      <c r="C10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" t="s">
+        <v>47</v>
+      </c>
+      <c r="E10">
+        <v>27727</v>
+      </c>
+      <c r="F10">
+        <v>447857</v>
+      </c>
+      <c r="G10">
+        <v>38025.419000000002</v>
+      </c>
+      <c r="H10">
+        <v>255646.11</v>
+      </c>
+      <c r="I10">
+        <v>75246.269</v>
+      </c>
+      <c r="J10">
+        <v>6184.8540000000003</v>
+      </c>
+      <c r="K10">
+        <v>87535.354999999996</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>2003</v>
+      </c>
+      <c r="B11" t="s">
+        <v>87</v>
+      </c>
+      <c r="C11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11">
+        <v>4018</v>
+      </c>
+      <c r="F11">
+        <v>72280</v>
+      </c>
+      <c r="G11">
+        <v>2918.5529999999999</v>
+      </c>
+      <c r="H11">
+        <v>30157.583999999999</v>
+      </c>
+      <c r="I11">
+        <v>9192.11</v>
+      </c>
+      <c r="J11">
+        <v>1107.9659999999999</v>
+      </c>
+      <c r="K11">
+        <v>13803.485000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>2003</v>
+      </c>
+      <c r="B12" t="s">
+        <v>88</v>
+      </c>
+      <c r="C12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12">
+        <v>17813</v>
+      </c>
+      <c r="F12">
+        <v>223352</v>
+      </c>
+      <c r="G12">
+        <v>12105.187</v>
+      </c>
+      <c r="H12">
+        <v>183086.416</v>
+      </c>
+      <c r="I12">
+        <v>55727.902999999998</v>
+      </c>
+      <c r="J12">
+        <v>3509.3249999999998</v>
+      </c>
+      <c r="K12">
+        <v>66415.792000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>2003</v>
+      </c>
+      <c r="B13" t="s">
+        <v>89</v>
+      </c>
+      <c r="C13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13">
+        <v>15003</v>
+      </c>
+      <c r="F13">
+        <v>40472</v>
+      </c>
+      <c r="G13">
+        <v>596.39300000000003</v>
+      </c>
+      <c r="H13">
+        <v>7019.8059999999996</v>
+      </c>
+      <c r="I13">
+        <v>3039.2979999999998</v>
+      </c>
+      <c r="J13">
+        <v>180.04</v>
+      </c>
+      <c r="K13">
+        <v>4558.2049999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>2003</v>
+      </c>
+      <c r="B14" t="s">
+        <v>90</v>
+      </c>
+      <c r="C14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14">
+        <v>6793</v>
+      </c>
+      <c r="F14">
+        <v>71657</v>
+      </c>
+      <c r="G14">
+        <v>4646.6909999999998</v>
+      </c>
+      <c r="H14">
+        <v>74033.023000000001</v>
+      </c>
+      <c r="I14">
+        <v>23353.607</v>
+      </c>
+      <c r="J14">
+        <v>1482.4010000000001</v>
+      </c>
+      <c r="K14">
+        <v>53867.62</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>2003</v>
+      </c>
+      <c r="B15" t="s">
+        <v>91</v>
+      </c>
+      <c r="C15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" t="s">
+        <v>47</v>
+      </c>
+      <c r="E15">
+        <v>24742</v>
+      </c>
+      <c r="F15">
+        <v>325887</v>
+      </c>
+      <c r="G15">
+        <v>19162.812000000002</v>
+      </c>
+      <c r="H15">
+        <v>210158.6</v>
+      </c>
+      <c r="I15">
+        <v>66023.244000000006</v>
+      </c>
+      <c r="J15">
+        <v>4793.259</v>
+      </c>
+      <c r="K15">
+        <v>78806.263999999996</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>2003</v>
+      </c>
+      <c r="B16" t="s">
+        <v>92</v>
+      </c>
+      <c r="C16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" t="s">
+        <v>47</v>
+      </c>
+      <c r="E16">
+        <v>35343</v>
+      </c>
+      <c r="F16">
+        <v>453832</v>
+      </c>
+      <c r="G16">
+        <v>34913.688999999998</v>
+      </c>
+      <c r="H16">
+        <v>346152.58500000002</v>
+      </c>
+      <c r="I16">
+        <v>128577.363</v>
+      </c>
+      <c r="J16">
+        <v>6375.1570000000002</v>
+      </c>
+      <c r="K16">
+        <v>136061.99900000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>2003</v>
+      </c>
+      <c r="B17" t="s">
+        <v>93</v>
+      </c>
+      <c r="C17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" t="s">
+        <v>47</v>
+      </c>
+      <c r="E17">
+        <v>21403</v>
+      </c>
+      <c r="F17">
+        <v>83906</v>
+      </c>
+      <c r="G17">
+        <v>2070.2579999999998</v>
+      </c>
+      <c r="H17">
+        <v>29130.618999999999</v>
+      </c>
+      <c r="I17">
+        <v>10810.07</v>
+      </c>
+      <c r="J17">
+        <v>463.09300000000002</v>
+      </c>
+      <c r="K17">
+        <v>21315.016</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>2003</v>
+      </c>
+      <c r="B18" t="s">
+        <v>94</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>47</v>
+      </c>
+      <c r="E18">
+        <v>6292</v>
+      </c>
+      <c r="F18">
+        <v>44453</v>
+      </c>
+      <c r="G18">
+        <v>3358.8409999999999</v>
+      </c>
+      <c r="H18">
+        <v>46156.283000000003</v>
+      </c>
+      <c r="I18">
+        <v>19191.974999999999</v>
+      </c>
+      <c r="J18">
+        <v>806.95600000000002</v>
+      </c>
+      <c r="K18">
+        <v>11532.731</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>2003</v>
+      </c>
+      <c r="B19" t="s">
+        <v>95</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>47</v>
+      </c>
+      <c r="E19">
+        <v>2730</v>
+      </c>
+      <c r="F19">
+        <v>12045</v>
+      </c>
+      <c r="G19">
+        <v>552.54</v>
+      </c>
+      <c r="H19">
+        <v>4267.6270000000004</v>
+      </c>
+      <c r="I19">
+        <v>1481.2190000000001</v>
+      </c>
+      <c r="J19">
+        <v>8.3650000000000002</v>
+      </c>
+      <c r="K19">
+        <v>2152.759</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>2003</v>
+      </c>
+      <c r="B20" t="s">
+        <v>96</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>47</v>
+      </c>
+      <c r="E20">
+        <v>10823</v>
+      </c>
+      <c r="F20">
+        <v>324856</v>
+      </c>
+      <c r="G20">
+        <v>29146.505000000001</v>
+      </c>
+      <c r="H20">
+        <v>270867.34100000001</v>
+      </c>
+      <c r="I20">
+        <v>93805.054999999993</v>
+      </c>
+      <c r="J20">
+        <v>9076.009</v>
+      </c>
+      <c r="K20">
+        <v>148785.79800000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>2003</v>
+      </c>
+      <c r="B21" t="s">
+        <v>97</v>
+      </c>
+      <c r="C21" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21" t="s">
+        <v>47</v>
+      </c>
+      <c r="E21">
+        <v>16833</v>
+      </c>
+      <c r="F21">
+        <v>50233</v>
+      </c>
+      <c r="G21">
+        <v>2492.2379999999998</v>
+      </c>
+      <c r="H21">
+        <v>66375.146999999997</v>
+      </c>
+      <c r="I21">
+        <v>21325.532999999999</v>
+      </c>
+      <c r="J21">
+        <v>847.077</v>
+      </c>
+      <c r="K21">
+        <v>28000.753000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>2003</v>
+      </c>
+      <c r="B22" t="s">
+        <v>98</v>
+      </c>
+      <c r="C22" t="s">
+        <v>29</v>
+      </c>
+      <c r="D22" t="s">
+        <v>47</v>
+      </c>
+      <c r="E22">
+        <v>26806</v>
+      </c>
+      <c r="F22">
+        <v>211262</v>
+      </c>
+      <c r="G22">
+        <v>11675.918</v>
+      </c>
+      <c r="H22">
+        <v>141172.88500000001</v>
+      </c>
+      <c r="I22">
+        <v>53610.571000000004</v>
+      </c>
+      <c r="J22">
+        <v>7334.973</v>
+      </c>
+      <c r="K22">
+        <v>96509.36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>2003</v>
+      </c>
+      <c r="B23" t="s">
+        <v>99</v>
+      </c>
+      <c r="C23" t="s">
+        <v>30</v>
+      </c>
+      <c r="D23" t="s">
+        <v>47</v>
+      </c>
+      <c r="E23">
+        <v>4157</v>
+      </c>
+      <c r="F23">
+        <v>94364</v>
+      </c>
+      <c r="G23">
+        <v>7301.4870000000001</v>
+      </c>
+      <c r="H23">
+        <v>73367.165999999997</v>
+      </c>
+      <c r="I23">
+        <v>24440.7</v>
+      </c>
+      <c r="J23">
+        <v>2183.404</v>
+      </c>
+      <c r="K23">
+        <v>34257.108</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>2003</v>
+      </c>
+      <c r="B24" t="s">
+        <v>100</v>
+      </c>
+      <c r="C24" t="s">
+        <v>31</v>
+      </c>
+      <c r="D24" t="s">
+        <v>47</v>
+      </c>
+      <c r="E24">
+        <v>2016</v>
+      </c>
+      <c r="F24">
+        <v>9890</v>
+      </c>
+      <c r="G24">
+        <v>326.46600000000001</v>
+      </c>
+      <c r="H24">
+        <v>2966.44</v>
+      </c>
+      <c r="I24">
+        <v>1082.001</v>
+      </c>
+      <c r="J24">
+        <v>92.837999999999994</v>
+      </c>
+      <c r="K24">
+        <v>802.55</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>2003</v>
+      </c>
+      <c r="B25" t="s">
+        <v>101</v>
+      </c>
+      <c r="C25" t="s">
+        <v>32</v>
+      </c>
+      <c r="D25" t="s">
+        <v>47</v>
+      </c>
+      <c r="E25">
+        <v>6319</v>
+      </c>
+      <c r="F25">
+        <v>87060</v>
+      </c>
+      <c r="G25">
+        <v>5378.3490000000002</v>
+      </c>
+      <c r="H25">
+        <v>64824.516000000003</v>
+      </c>
+      <c r="I25">
+        <v>21005.508000000002</v>
+      </c>
+      <c r="J25">
+        <v>2190.018</v>
+      </c>
+      <c r="K25">
+        <v>41854.334999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>2003</v>
+      </c>
+      <c r="B26" t="s">
+        <v>102</v>
+      </c>
+      <c r="C26" t="s">
+        <v>34</v>
+      </c>
+      <c r="D26" t="s">
+        <v>47</v>
+      </c>
+      <c r="E26">
+        <v>5972</v>
+      </c>
+      <c r="F26">
+        <v>47345</v>
+      </c>
+      <c r="G26">
+        <v>2210.6849999999999</v>
+      </c>
+      <c r="H26">
+        <v>18185.561000000002</v>
+      </c>
+      <c r="I26">
+        <v>6433.8450000000003</v>
+      </c>
+      <c r="J26">
+        <v>448.35199999999998</v>
+      </c>
+      <c r="K26">
+        <v>10830.053</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>2003</v>
+      </c>
+      <c r="B27" t="s">
+        <v>103</v>
+      </c>
+      <c r="C27" t="s">
+        <v>35</v>
+      </c>
+      <c r="D27" t="s">
+        <v>47</v>
+      </c>
+      <c r="E27">
+        <v>6775</v>
+      </c>
+      <c r="F27">
+        <v>127258</v>
+      </c>
+      <c r="G27">
+        <v>8257.0879999999997</v>
+      </c>
+      <c r="H27">
+        <v>62308.796000000002</v>
+      </c>
+      <c r="I27">
+        <v>24006.845000000001</v>
+      </c>
+      <c r="J27">
+        <v>1559.63</v>
+      </c>
+      <c r="K27">
+        <v>36190.478000000003</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>2003</v>
+      </c>
+      <c r="B28" t="s">
+        <v>104</v>
+      </c>
+      <c r="C28" t="s">
+        <v>36</v>
+      </c>
+      <c r="D28" t="s">
+        <v>47</v>
+      </c>
+      <c r="E28">
+        <v>4009</v>
+      </c>
+      <c r="F28">
+        <v>22459</v>
+      </c>
+      <c r="G28">
+        <v>1752.963</v>
+      </c>
+      <c r="H28">
+        <v>64628.786</v>
+      </c>
+      <c r="I28">
+        <v>17028.919000000002</v>
+      </c>
+      <c r="J28">
+        <v>1796.9090000000001</v>
+      </c>
+      <c r="K28">
+        <v>14803.189</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>2003</v>
+      </c>
+      <c r="B29" t="s">
+        <v>105</v>
+      </c>
+      <c r="C29" t="s">
+        <v>37</v>
+      </c>
+      <c r="D29" t="s">
+        <v>47</v>
+      </c>
+      <c r="E29">
+        <v>6744</v>
+      </c>
+      <c r="F29">
+        <v>211921</v>
+      </c>
+      <c r="G29">
+        <v>17062.131000000001</v>
+      </c>
+      <c r="H29">
+        <v>96277.895999999993</v>
+      </c>
+      <c r="I29">
+        <v>37931.925000000003</v>
+      </c>
+      <c r="J29">
+        <v>4043.556</v>
+      </c>
+      <c r="K29">
+        <v>37750.322</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>2003</v>
+      </c>
+      <c r="B30" t="s">
+        <v>106</v>
+      </c>
+      <c r="C30" t="s">
+        <v>38</v>
+      </c>
+      <c r="D30" t="s">
+        <v>47</v>
+      </c>
+      <c r="E30">
+        <v>5525</v>
+      </c>
+      <c r="F30">
+        <v>50342</v>
+      </c>
+      <c r="G30">
+        <v>2515.0439999999999</v>
+      </c>
+      <c r="H30">
+        <v>26826.937000000002</v>
+      </c>
+      <c r="I30">
+        <v>10414.839</v>
+      </c>
+      <c r="J30">
+        <v>789.88099999999997</v>
+      </c>
+      <c r="K30">
+        <v>11674.82</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>2003</v>
+      </c>
+      <c r="B31" t="s">
+        <v>107</v>
+      </c>
+      <c r="C31" t="s">
+        <v>39</v>
+      </c>
+      <c r="D31" t="s">
+        <v>47</v>
+      </c>
+      <c r="E31">
+        <v>19300</v>
+      </c>
+      <c r="F31">
+        <v>124474</v>
+      </c>
+      <c r="G31">
+        <v>11677.588</v>
+      </c>
+      <c r="H31">
+        <v>148609.91899999999</v>
+      </c>
+      <c r="I31">
+        <v>39482.061000000002</v>
+      </c>
+      <c r="J31">
+        <v>1952.575</v>
+      </c>
+      <c r="K31">
+        <v>109840.78599999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>2003</v>
+      </c>
+      <c r="B32" t="s">
+        <v>108</v>
+      </c>
+      <c r="C32" t="s">
+        <v>40</v>
+      </c>
+      <c r="D32" t="s">
+        <v>47</v>
+      </c>
+      <c r="E32">
+        <v>11514</v>
+      </c>
+      <c r="F32">
+        <v>83865</v>
+      </c>
+      <c r="G32">
+        <v>3056.2570000000001</v>
+      </c>
+      <c r="H32">
+        <v>20301.609</v>
+      </c>
+      <c r="I32">
+        <v>8496.1049999999996</v>
+      </c>
+      <c r="J32">
+        <v>921.45899999999995</v>
+      </c>
+      <c r="K32">
+        <v>8207.4789999999994</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>2003</v>
+      </c>
+      <c r="B33" t="s">
+        <v>109</v>
+      </c>
+      <c r="C33" t="s">
+        <v>41</v>
+      </c>
+      <c r="D33" t="s">
+        <v>47</v>
+      </c>
+      <c r="E33">
+        <v>3865</v>
+      </c>
+      <c r="F33">
+        <v>25455</v>
+      </c>
+      <c r="G33">
+        <v>1304.0350000000001</v>
+      </c>
+      <c r="H33">
+        <v>13658.754000000001</v>
+      </c>
+      <c r="I33">
+        <v>5731.8159999999998</v>
+      </c>
+      <c r="J33">
+        <v>293.21499999999997</v>
+      </c>
+      <c r="K33">
+        <v>9501.3770000000004</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58E74496-E540-1C42-8DF5-99EDFF3CA7F3}">
   <dimension ref="A1:B12"/>
   <sheetViews>
@@ -21963,12 +23134,12 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>65</v>
       </c>
@@ -21976,7 +23147,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>74</v>
       </c>
@@ -21984,7 +23155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>75</v>
       </c>
@@ -21992,7 +23163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>76</v>
       </c>
@@ -22000,7 +23171,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>78</v>
       </c>
@@ -22008,7 +23179,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>67</v>
       </c>
@@ -22016,7 +23187,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>68</v>
       </c>
@@ -22024,7 +23195,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>69</v>
       </c>
@@ -22032,7 +23203,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>70</v>
       </c>
@@ -22040,7 +23211,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>71</v>
       </c>
@@ -22048,7 +23219,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>72</v>
       </c>
@@ -22056,7 +23227,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>73</v>
       </c>
@@ -22070,20 +23241,20 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="9f5d73ec-4d7c-4550-914d-2182a1cee87e" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="9f5d73ec-4d7c-4550-914d-2182a1cee87e" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -22282,14 +23453,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{94E6B42D-6DCE-4CC7-A69D-F948B8BB84B6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{212CA8F6-9572-4DBA-8747-1C940ADE1E59}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
@@ -22302,6 +23465,14 @@
     <ds:schemaRef ds:uri="9f5d73ec-4d7c-4550-914d-2182a1cee87e"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{94E6B42D-6DCE-4CC7-A69D-F948B8BB84B6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
